--- a/consolidado7.xlsx
+++ b/consolidado7.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V943"/>
+  <dimension ref="A1:V944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="U78" t="inlineStr"/>
       <c r="V78" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="79">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -9661,7 +9661,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
@@ -9674,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>3618</v>
+        <v>3828</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -9683,7 +9687,7 @@
       </c>
       <c r="U125" t="inlineStr"/>
       <c r="V125" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="126">
@@ -11243,7 +11247,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -11263,7 +11267,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
@@ -11272,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T144" t="inlineStr">
         <is>
@@ -11281,7 +11285,7 @@
       </c>
       <c r="U144" t="inlineStr"/>
       <c r="V144" s="2" t="n">
-        <v>45216</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="145">
@@ -12305,7 +12309,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -12359,7 +12363,7 @@
       </c>
       <c r="U159" t="inlineStr"/>
       <c r="V159" s="2" t="n">
-        <v>45216</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="160">
@@ -12803,7 +12807,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -12872,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>16152</v>
+        <v>16226</v>
       </c>
       <c r="T166" t="inlineStr">
         <is>
@@ -12881,7 +12885,7 @@
       </c>
       <c r="U166" t="inlineStr"/>
       <c r="V166" s="2" t="n">
-        <v>45240</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="167">
@@ -13077,7 +13081,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13125,7 +13129,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="n">
@@ -13138,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>7460</v>
+        <v>7547</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -13147,7 +13155,7 @@
       </c>
       <c r="U169" t="inlineStr"/>
       <c r="V169" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="170">
@@ -14031,7 +14039,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14075,7 +14083,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
@@ -14088,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>1842</v>
+        <v>1859</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -14097,7 +14109,7 @@
       </c>
       <c r="U182" t="inlineStr"/>
       <c r="V182" s="2" t="n">
-        <v>45224</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="183">
@@ -14897,7 +14909,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -14931,7 +14943,7 @@
       </c>
       <c r="U195" t="inlineStr"/>
       <c r="V195" s="2" t="n">
-        <v>45225</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="196">
@@ -15165,7 +15177,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -15238,7 +15250,7 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>2271</v>
+        <v>2320</v>
       </c>
       <c r="T199" t="inlineStr">
         <is>
@@ -15247,7 +15259,7 @@
       </c>
       <c r="U199" t="inlineStr"/>
       <c r="V199" s="2" t="n">
-        <v>45212</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="200">
@@ -16995,7 +17007,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -17043,7 +17055,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="n">
@@ -17056,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="S222" t="n">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -17065,7 +17081,7 @@
       </c>
       <c r="U222" t="inlineStr"/>
       <c r="V222" s="2" t="n">
-        <v>45210</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="223">
@@ -17081,7 +17097,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -17115,7 +17131,7 @@
       </c>
       <c r="U223" t="inlineStr"/>
       <c r="V223" s="2" t="n">
-        <v>45205</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="224">
@@ -17803,7 +17819,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
@@ -17837,7 +17853,7 @@
       </c>
       <c r="U232" t="inlineStr"/>
       <c r="V232" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="233">
@@ -18333,7 +18349,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -18381,7 +18397,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="n">
@@ -18394,7 +18414,7 @@
         <v>2</v>
       </c>
       <c r="S239" t="n">
-        <v>1620</v>
+        <v>1641</v>
       </c>
       <c r="T239" t="inlineStr">
         <is>
@@ -18403,7 +18423,7 @@
       </c>
       <c r="U239" t="inlineStr"/>
       <c r="V239" s="2" t="n">
-        <v>45215</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="240">
@@ -18813,7 +18833,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -18861,7 +18881,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="n">
@@ -18874,7 +18898,7 @@
         <v>8</v>
       </c>
       <c r="S245" t="n">
-        <v>7339</v>
+        <v>7454</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -18883,7 +18907,7 @@
       </c>
       <c r="U245" t="inlineStr"/>
       <c r="V245" s="2" t="n">
-        <v>45218</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="246">
@@ -18899,7 +18923,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
@@ -18941,7 +18965,7 @@
       </c>
       <c r="U246" t="inlineStr"/>
       <c r="V246" s="2" t="n">
-        <v>45240</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="247">
@@ -21181,7 +21205,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -21229,7 +21253,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr"/>
       <c r="P275" t="n">
@@ -21242,7 +21270,7 @@
         <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="T275" t="inlineStr">
         <is>
@@ -21251,7 +21279,7 @@
       </c>
       <c r="U275" t="inlineStr"/>
       <c r="V275" s="2" t="n">
-        <v>45223</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="276">
@@ -22143,7 +22171,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -22217,7 +22245,7 @@
       </c>
       <c r="U288" t="inlineStr"/>
       <c r="V288" s="2" t="n">
-        <v>45246</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="289">
@@ -22377,7 +22405,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -22451,7 +22479,7 @@
       </c>
       <c r="U291" t="inlineStr"/>
       <c r="V291" s="2" t="n">
-        <v>45246</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="292">
@@ -24347,7 +24375,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -24395,7 +24423,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="n">
@@ -24408,7 +24440,7 @@
         <v>1</v>
       </c>
       <c r="S316" t="n">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="T316" t="inlineStr">
         <is>
@@ -24417,7 +24449,7 @@
       </c>
       <c r="U316" t="inlineStr"/>
       <c r="V316" s="2" t="n">
-        <v>45209</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="317">
@@ -24433,7 +24465,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
@@ -24467,7 +24499,7 @@
       </c>
       <c r="U317" t="inlineStr"/>
       <c r="V317" s="2" t="n">
-        <v>45225</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="318">
@@ -25131,10 +25163,14 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr"/>
+          <t>2023/11/23</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
@@ -25156,7 +25192,7 @@
         <v>0</v>
       </c>
       <c r="S328" t="n">
-        <v>493</v>
+        <v>644</v>
       </c>
       <c r="T328" t="inlineStr">
         <is>
@@ -25165,7 +25201,7 @@
       </c>
       <c r="U328" t="inlineStr"/>
       <c r="V328" s="2" t="n">
-        <v>45246</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="329">
@@ -25181,7 +25217,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -25229,7 +25265,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="n">
@@ -25242,7 +25282,7 @@
         <v>0</v>
       </c>
       <c r="S329" t="n">
-        <v>11855</v>
+        <v>12023</v>
       </c>
       <c r="T329" t="inlineStr">
         <is>
@@ -25251,7 +25291,7 @@
       </c>
       <c r="U329" t="inlineStr"/>
       <c r="V329" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="330">
@@ -25267,10 +25307,14 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr"/>
+          <t>2023/11/23</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
@@ -25292,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="S330" t="n">
-        <v>27657</v>
+        <v>27667</v>
       </c>
       <c r="T330" t="inlineStr">
         <is>
@@ -25301,7 +25345,7 @@
       </c>
       <c r="U330" t="inlineStr"/>
       <c r="V330" s="2" t="n">
-        <v>45219</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="331">
@@ -25689,7 +25733,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -25753,7 +25797,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>8561</v>
+        <v>8569</v>
       </c>
       <c r="Q335" t="n">
         <v>368</v>
@@ -25762,7 +25806,7 @@
         <v>1</v>
       </c>
       <c r="S335" t="n">
-        <v>65731</v>
+        <v>65957</v>
       </c>
       <c r="T335" t="inlineStr">
         <is>
@@ -25771,7 +25815,7 @@
       </c>
       <c r="U335" t="inlineStr"/>
       <c r="V335" s="2" t="n">
-        <v>45216</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="336">
@@ -26027,7 +26071,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -26070,8 +26114,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="n">
@@ -26084,7 +26136,7 @@
         <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>15996</v>
+        <v>16654</v>
       </c>
       <c r="T340" t="inlineStr">
         <is>
@@ -26093,7 +26145,7 @@
       </c>
       <c r="U340" t="inlineStr"/>
       <c r="V340" s="2" t="n">
-        <v>45213</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="341">
@@ -26441,7 +26493,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
@@ -26479,7 +26531,7 @@
       </c>
       <c r="U345" t="inlineStr"/>
       <c r="V345" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="346">
@@ -27499,7 +27551,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -27564,7 +27616,7 @@
         <v>2</v>
       </c>
       <c r="S358" t="n">
-        <v>23401</v>
+        <v>23427</v>
       </c>
       <c r="T358" t="inlineStr">
         <is>
@@ -27573,7 +27625,7 @@
       </c>
       <c r="U358" t="inlineStr"/>
       <c r="V358" s="2" t="n">
-        <v>45246</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="359">
@@ -29193,7 +29245,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -29209,7 +29261,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="n">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="Q381" t="n">
         <v>0</v>
@@ -29218,7 +29270,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="T381" t="inlineStr">
         <is>
@@ -29227,7 +29279,7 @@
       </c>
       <c r="U381" t="inlineStr"/>
       <c r="V381" s="2" t="n">
-        <v>45216</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="382">
@@ -29935,7 +29987,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -29983,7 +30035,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M392" t="inlineStr"/>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="n">
@@ -29996,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="S392" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="T392" t="inlineStr">
         <is>
@@ -30005,7 +30061,7 @@
       </c>
       <c r="U392" t="inlineStr"/>
       <c r="V392" s="2" t="n">
-        <v>45210</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="393">
@@ -30091,7 +30147,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -30099,19 +30155,43 @@
           <t>x</t>
         </is>
       </c>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L394" t="inlineStr"/>
       <c r="M394" t="inlineStr"/>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q394" t="n">
         <v>0</v>
@@ -30120,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="S394" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="T394" t="inlineStr">
         <is>
@@ -30129,7 +30209,7 @@
       </c>
       <c r="U394" t="inlineStr"/>
       <c r="V394" s="2" t="n">
-        <v>45223</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="395">
@@ -30211,7 +30291,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -30297,7 +30377,7 @@
         </is>
       </c>
       <c r="V396" s="2" t="n">
-        <v>45240</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="397">
@@ -31553,7 +31633,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -31588,8 +31668,16 @@
         </is>
       </c>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
-      <c r="M413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="n">
@@ -31602,7 +31690,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -31611,7 +31699,7 @@
       </c>
       <c r="U413" t="inlineStr"/>
       <c r="V413" s="2" t="n">
-        <v>45156</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="414">
@@ -31983,7 +32071,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -32031,7 +32119,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M418" t="inlineStr"/>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr"/>
       <c r="P418" t="n">
@@ -32044,7 +32136,7 @@
         <v>0</v>
       </c>
       <c r="S418" t="n">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="T418" t="inlineStr">
         <is>
@@ -32053,7 +32145,7 @@
       </c>
       <c r="U418" t="inlineStr"/>
       <c r="V418" s="2" t="n">
-        <v>45224</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="419">
@@ -32299,7 +32391,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
@@ -32319,7 +32411,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr"/>
       <c r="P422" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q422" t="n">
         <v>0</v>
@@ -32328,7 +32420,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -32337,7 +32429,7 @@
       </c>
       <c r="U422" t="inlineStr"/>
       <c r="V422" s="2" t="n">
-        <v>45209</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="423">
@@ -32707,7 +32799,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
@@ -32723,7 +32815,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q428" t="n">
         <v>0</v>
@@ -32732,7 +32824,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="T428" t="inlineStr">
         <is>
@@ -32741,7 +32833,7 @@
       </c>
       <c r="U428" t="inlineStr"/>
       <c r="V428" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="429">
@@ -35505,7 +35597,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -35553,7 +35645,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M469" t="inlineStr"/>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
@@ -35570,7 +35666,7 @@
         <v>0</v>
       </c>
       <c r="S469" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="T469" t="inlineStr">
         <is>
@@ -35579,7 +35675,7 @@
       </c>
       <c r="U469" t="inlineStr"/>
       <c r="V469" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="470">
@@ -36067,7 +36163,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -36132,7 +36228,7 @@
         <v>0</v>
       </c>
       <c r="S476" t="n">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="T476" t="inlineStr">
         <is>
@@ -36141,7 +36237,7 @@
       </c>
       <c r="U476" t="inlineStr"/>
       <c r="V476" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="477">
@@ -36481,7 +36577,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -36546,7 +36642,7 @@
         <v>0</v>
       </c>
       <c r="S481" t="n">
-        <v>4852</v>
+        <v>4854</v>
       </c>
       <c r="T481" t="inlineStr">
         <is>
@@ -36555,7 +36651,7 @@
       </c>
       <c r="U481" t="inlineStr"/>
       <c r="V481" s="2" t="n">
-        <v>45247</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="482">
@@ -36657,7 +36753,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -36705,7 +36801,7 @@
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -36714,7 +36810,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -36723,7 +36819,7 @@
       </c>
       <c r="U483" t="inlineStr"/>
       <c r="V483" s="2" t="n">
-        <v>45246</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="484">
@@ -36867,7 +36963,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -36915,7 +37011,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M486" t="inlineStr"/>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="n">
@@ -36928,7 +37028,7 @@
         <v>0</v>
       </c>
       <c r="S486" t="n">
-        <v>1624</v>
+        <v>1636</v>
       </c>
       <c r="T486" t="inlineStr">
         <is>
@@ -36937,7 +37037,7 @@
       </c>
       <c r="U486" t="inlineStr"/>
       <c r="V486" s="2" t="n">
-        <v>45209</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="487">
@@ -37043,7 +37143,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -37091,7 +37191,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="n">
@@ -37104,7 +37208,7 @@
         <v>48</v>
       </c>
       <c r="S488" t="n">
-        <v>11486</v>
+        <v>11644</v>
       </c>
       <c r="T488" t="inlineStr">
         <is>
@@ -37113,7 +37217,7 @@
       </c>
       <c r="U488" t="inlineStr"/>
       <c r="V488" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="489">
@@ -37313,7 +37417,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -37339,13 +37443,21 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="M491" t="inlineStr"/>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="n">
@@ -37358,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>828</v>
+        <v>879</v>
       </c>
       <c r="T491" t="inlineStr">
         <is>
@@ -37367,7 +37479,7 @@
       </c>
       <c r="U491" t="inlineStr"/>
       <c r="V491" s="2" t="n">
-        <v>45237</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="492">
@@ -38437,7 +38549,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -38485,7 +38597,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M505" t="inlineStr"/>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="n">
@@ -38498,7 +38614,7 @@
         <v>49</v>
       </c>
       <c r="S505" t="n">
-        <v>5327</v>
+        <v>5334</v>
       </c>
       <c r="T505" t="inlineStr">
         <is>
@@ -38507,7 +38623,7 @@
       </c>
       <c r="U505" t="inlineStr"/>
       <c r="V505" s="2" t="n">
-        <v>45209</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="506">
@@ -39001,7 +39117,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
@@ -39058,7 +39174,7 @@
         <v>21</v>
       </c>
       <c r="S513" t="n">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="T513" t="inlineStr">
         <is>
@@ -39067,7 +39183,7 @@
       </c>
       <c r="U513" t="inlineStr"/>
       <c r="V513" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="514">
@@ -41369,7 +41485,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -41427,7 +41543,7 @@
       </c>
       <c r="U543" t="inlineStr"/>
       <c r="V543" s="2" t="n">
-        <v>45224</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="544">
@@ -41825,7 +41941,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -41873,7 +41989,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M549" t="inlineStr"/>
+      <c r="M549" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="n">
@@ -41886,7 +42006,7 @@
         <v>0</v>
       </c>
       <c r="S549" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T549" t="inlineStr">
         <is>
@@ -41895,7 +42015,7 @@
       </c>
       <c r="U549" t="inlineStr"/>
       <c r="V549" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="550">
@@ -42499,7 +42619,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -42547,7 +42667,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M558" t="inlineStr"/>
+      <c r="M558" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N558" t="inlineStr"/>
       <c r="O558" t="inlineStr"/>
       <c r="P558" t="n">
@@ -42560,7 +42684,7 @@
         <v>1</v>
       </c>
       <c r="S558" t="n">
-        <v>887</v>
+        <v>949</v>
       </c>
       <c r="T558" t="inlineStr">
         <is>
@@ -42569,7 +42693,7 @@
       </c>
       <c r="U558" t="inlineStr"/>
       <c r="V558" s="2" t="n">
-        <v>45211</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="559">
@@ -43025,7 +43149,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -43073,7 +43197,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M565" t="inlineStr"/>
+      <c r="M565" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N565" t="inlineStr"/>
       <c r="O565" t="inlineStr"/>
       <c r="P565" t="n">
@@ -43086,7 +43214,7 @@
         <v>0</v>
       </c>
       <c r="S565" t="n">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="T565" t="inlineStr">
         <is>
@@ -43095,7 +43223,7 @@
       </c>
       <c r="U565" t="inlineStr"/>
       <c r="V565" s="2" t="n">
-        <v>45229</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="566">
@@ -43111,7 +43239,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -43173,7 +43301,7 @@
       </c>
       <c r="U566" t="inlineStr"/>
       <c r="V566" s="2" t="n">
-        <v>45229</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="567">
@@ -44049,7 +44177,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -44097,7 +44225,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M579" t="inlineStr"/>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N579" t="inlineStr"/>
       <c r="O579" t="inlineStr"/>
       <c r="P579" t="n">
@@ -44110,7 +44242,7 @@
         <v>0</v>
       </c>
       <c r="S579" t="n">
-        <v>13122</v>
+        <v>13161</v>
       </c>
       <c r="T579" t="inlineStr">
         <is>
@@ -44123,7 +44255,7 @@
         </is>
       </c>
       <c r="V579" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="580">
@@ -44323,7 +44455,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
@@ -44339,7 +44471,7 @@
       <c r="N582" t="inlineStr"/>
       <c r="O582" t="inlineStr"/>
       <c r="P582" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="Q582" t="n">
         <v>0</v>
@@ -44348,7 +44480,7 @@
         <v>0</v>
       </c>
       <c r="S582" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="T582" t="inlineStr">
         <is>
@@ -44357,7 +44489,7 @@
       </c>
       <c r="U582" t="inlineStr"/>
       <c r="V582" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="583">
@@ -44443,7 +44575,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
@@ -44463,16 +44595,16 @@
       <c r="N584" t="inlineStr"/>
       <c r="O584" t="inlineStr"/>
       <c r="P584" t="n">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="Q584" t="n">
         <v>0</v>
       </c>
       <c r="R584" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S584" t="n">
-        <v>2045</v>
+        <v>2077</v>
       </c>
       <c r="T584" t="inlineStr">
         <is>
@@ -44481,7 +44613,7 @@
       </c>
       <c r="U584" t="inlineStr"/>
       <c r="V584" s="2" t="n">
-        <v>45190</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="585">
@@ -44891,7 +45023,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -44960,7 +45092,7 @@
         <v>9</v>
       </c>
       <c r="S590" t="n">
-        <v>20975</v>
+        <v>20994</v>
       </c>
       <c r="T590" t="inlineStr">
         <is>
@@ -44969,7 +45101,7 @@
       </c>
       <c r="U590" t="inlineStr"/>
       <c r="V590" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="591">
@@ -45179,7 +45311,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -45248,7 +45380,7 @@
         <v>5</v>
       </c>
       <c r="S594" t="n">
-        <v>12147</v>
+        <v>12142</v>
       </c>
       <c r="T594" t="inlineStr">
         <is>
@@ -45257,7 +45389,7 @@
       </c>
       <c r="U594" t="inlineStr"/>
       <c r="V594" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="595">
@@ -45363,10 +45495,14 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2023/08/07</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr"/>
+          <t>2023/11/21</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="E596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
@@ -45385,9 +45521,17 @@
         </is>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L596" t="inlineStr"/>
-      <c r="M596" t="inlineStr"/>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N596" t="inlineStr"/>
       <c r="O596" t="inlineStr"/>
       <c r="P596" t="n">
@@ -45400,7 +45544,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="T596" t="inlineStr">
         <is>
@@ -45409,7 +45553,7 @@
       </c>
       <c r="U596" t="inlineStr"/>
       <c r="V596" s="2" t="n">
-        <v>45145</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="597">
@@ -45425,7 +45569,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -45473,7 +45617,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N597" t="inlineStr"/>
       <c r="O597" t="inlineStr"/>
       <c r="P597" t="n">
@@ -45486,7 +45634,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>3545</v>
+        <v>3596</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -45495,7 +45643,7 @@
       </c>
       <c r="U597" t="inlineStr"/>
       <c r="V597" s="2" t="n">
-        <v>45236</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="598">
@@ -45601,7 +45749,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2023/08/25</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
@@ -45613,7 +45761,11 @@
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr"/>
-      <c r="M599" t="inlineStr"/>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N599" t="inlineStr"/>
       <c r="O599" t="inlineStr"/>
       <c r="P599" t="n">
@@ -45626,7 +45778,7 @@
         <v>0</v>
       </c>
       <c r="S599" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T599" t="inlineStr">
         <is>
@@ -45635,7 +45787,7 @@
       </c>
       <c r="U599" t="inlineStr"/>
       <c r="V599" s="2" t="n">
-        <v>45163</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="600">
@@ -46653,7 +46805,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -46718,7 +46870,7 @@
         <v>1</v>
       </c>
       <c r="S613" t="n">
-        <v>1273</v>
+        <v>1296</v>
       </c>
       <c r="T613" t="inlineStr">
         <is>
@@ -46727,7 +46879,7 @@
       </c>
       <c r="U613" t="inlineStr"/>
       <c r="V613" s="2" t="n">
-        <v>45237</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="614">
@@ -46743,7 +46895,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -46808,7 +46960,7 @@
         <v>4</v>
       </c>
       <c r="S614" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="T614" t="inlineStr">
         <is>
@@ -46817,7 +46969,7 @@
       </c>
       <c r="U614" t="inlineStr"/>
       <c r="V614" s="2" t="n">
-        <v>45244</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="615">
@@ -46923,7 +47075,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D616" t="inlineStr"/>
@@ -46959,7 +47111,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>2512</v>
+        <v>2596</v>
       </c>
       <c r="Q616" t="n">
         <v>419</v>
@@ -46968,7 +47120,7 @@
         <v>581</v>
       </c>
       <c r="S616" t="n">
-        <v>12025</v>
+        <v>12109</v>
       </c>
       <c r="T616" t="inlineStr">
         <is>
@@ -46977,7 +47129,7 @@
       </c>
       <c r="U616" t="inlineStr"/>
       <c r="V616" s="2" t="n">
-        <v>45216</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="617">
@@ -48211,7 +48363,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D632" t="inlineStr"/>
@@ -48257,7 +48409,7 @@
         </is>
       </c>
       <c r="V632" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="633">
@@ -48891,7 +49043,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -48948,7 +49100,7 @@
         <v>0</v>
       </c>
       <c r="S640" t="n">
-        <v>1412</v>
+        <v>1419</v>
       </c>
       <c r="T640" t="inlineStr">
         <is>
@@ -48961,7 +49113,7 @@
         </is>
       </c>
       <c r="V640" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="641">
@@ -49441,7 +49593,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -49500,13 +49652,13 @@
         <v>377</v>
       </c>
       <c r="Q647" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R647" t="n">
         <v>0</v>
       </c>
       <c r="S647" t="n">
-        <v>5487</v>
+        <v>5488</v>
       </c>
       <c r="T647" t="inlineStr">
         <is>
@@ -49519,7 +49671,7 @@
         </is>
       </c>
       <c r="V647" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="648">
@@ -49937,7 +50089,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -50002,7 +50154,7 @@
         <v>213</v>
       </c>
       <c r="S653" t="n">
-        <v>2210</v>
+        <v>2216</v>
       </c>
       <c r="T653" t="inlineStr">
         <is>
@@ -50011,7 +50163,7 @@
       </c>
       <c r="U653" t="inlineStr"/>
       <c r="V653" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="654">
@@ -50125,7 +50277,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -50186,7 +50338,7 @@
         <v>1</v>
       </c>
       <c r="S655" t="n">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="T655" t="inlineStr">
         <is>
@@ -50195,7 +50347,7 @@
       </c>
       <c r="U655" t="inlineStr"/>
       <c r="V655" s="2" t="n">
-        <v>45243</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="656">
@@ -50211,7 +50363,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -50276,7 +50428,7 @@
         <v>0</v>
       </c>
       <c r="S656" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="T656" t="inlineStr">
         <is>
@@ -50285,7 +50437,7 @@
       </c>
       <c r="U656" t="inlineStr"/>
       <c r="V656" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="657">
@@ -51955,7 +52107,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -52017,7 +52169,7 @@
       </c>
       <c r="U678" t="inlineStr"/>
       <c r="V678" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="679">
@@ -53017,7 +53169,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -53082,7 +53234,7 @@
         <v>34</v>
       </c>
       <c r="S691" t="n">
-        <v>7290</v>
+        <v>7396</v>
       </c>
       <c r="T691" t="inlineStr">
         <is>
@@ -53091,7 +53243,7 @@
       </c>
       <c r="U691" t="inlineStr"/>
       <c r="V691" s="2" t="n">
-        <v>45244</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="692">
@@ -53107,7 +53259,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -53172,7 +53324,7 @@
         <v>5</v>
       </c>
       <c r="S692" t="n">
-        <v>4066</v>
+        <v>4106</v>
       </c>
       <c r="T692" t="inlineStr">
         <is>
@@ -53181,7 +53333,7 @@
       </c>
       <c r="U692" t="inlineStr"/>
       <c r="V692" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="693">
@@ -53317,7 +53469,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -53391,7 +53543,7 @@
       </c>
       <c r="U695" t="inlineStr"/>
       <c r="V695" s="2" t="n">
-        <v>45238</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="696">
@@ -53587,7 +53739,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
@@ -53621,7 +53773,7 @@
       </c>
       <c r="U698" t="inlineStr"/>
       <c r="V698" s="2" t="n">
-        <v>45222</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="699">
@@ -53637,7 +53789,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -53702,7 +53854,7 @@
         <v>71</v>
       </c>
       <c r="S699" t="n">
-        <v>4264</v>
+        <v>4326</v>
       </c>
       <c r="T699" t="inlineStr">
         <is>
@@ -53711,7 +53863,7 @@
       </c>
       <c r="U699" t="inlineStr"/>
       <c r="V699" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="700">
@@ -53817,7 +53969,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -53891,7 +54043,7 @@
       </c>
       <c r="U701" t="inlineStr"/>
       <c r="V701" s="2" t="n">
-        <v>45239</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="702">
@@ -53907,7 +54059,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -53955,7 +54107,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M702" t="inlineStr"/>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N702" t="inlineStr"/>
       <c r="O702" t="inlineStr"/>
       <c r="P702" t="n">
@@ -53968,7 +54124,7 @@
         <v>23</v>
       </c>
       <c r="S702" t="n">
-        <v>5007</v>
+        <v>5067</v>
       </c>
       <c r="T702" t="inlineStr">
         <is>
@@ -53977,7 +54133,7 @@
       </c>
       <c r="U702" t="inlineStr"/>
       <c r="V702" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="703">
@@ -54653,7 +54809,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -54706,8 +54862,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N711" t="inlineStr"/>
-      <c r="O711" t="inlineStr"/>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P711" t="n">
         <v>322</v>
       </c>
@@ -54718,7 +54882,7 @@
         <v>4</v>
       </c>
       <c r="S711" t="n">
-        <v>2252</v>
+        <v>2264</v>
       </c>
       <c r="T711" t="inlineStr">
         <is>
@@ -54727,7 +54891,7 @@
       </c>
       <c r="U711" t="inlineStr"/>
       <c r="V711" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="712">
@@ -56509,7 +56673,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -56574,7 +56738,7 @@
         <v>0</v>
       </c>
       <c r="S733" t="n">
-        <v>14436</v>
+        <v>14445</v>
       </c>
       <c r="T733" t="inlineStr">
         <is>
@@ -56583,7 +56747,7 @@
       </c>
       <c r="U733" t="inlineStr"/>
       <c r="V733" s="2" t="n">
-        <v>45246</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="734">
@@ -57231,7 +57395,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -57277,7 +57441,7 @@
       </c>
       <c r="U742" t="inlineStr"/>
       <c r="V742" s="2" t="n">
-        <v>45209</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="743">
@@ -57383,7 +57547,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -57448,7 +57612,7 @@
         <v>2</v>
       </c>
       <c r="S744" t="n">
-        <v>4917</v>
+        <v>4935</v>
       </c>
       <c r="T744" t="inlineStr">
         <is>
@@ -57457,7 +57621,7 @@
       </c>
       <c r="U744" t="inlineStr"/>
       <c r="V744" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="745">
@@ -57641,7 +57805,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -57706,7 +57870,7 @@
         <v>40</v>
       </c>
       <c r="S747" t="n">
-        <v>23156</v>
+        <v>23256</v>
       </c>
       <c r="T747" t="inlineStr">
         <is>
@@ -57715,7 +57879,7 @@
       </c>
       <c r="U747" t="inlineStr"/>
       <c r="V747" s="2" t="n">
-        <v>45246</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="748">
@@ -58475,7 +58639,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -58540,7 +58704,7 @@
         <v>0</v>
       </c>
       <c r="S758" t="n">
-        <v>8009</v>
+        <v>8030</v>
       </c>
       <c r="T758" t="inlineStr">
         <is>
@@ -58549,7 +58713,7 @@
       </c>
       <c r="U758" t="inlineStr"/>
       <c r="V758" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="759">
@@ -58745,7 +58909,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -58819,7 +58983,7 @@
       </c>
       <c r="U761" t="inlineStr"/>
       <c r="V761" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="762">
@@ -58925,7 +59089,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -58999,7 +59163,7 @@
       </c>
       <c r="U763" t="inlineStr"/>
       <c r="V763" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="764">
@@ -60363,7 +60527,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -60411,7 +60575,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M782" t="inlineStr"/>
+      <c r="M782" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N782" t="inlineStr"/>
       <c r="O782" t="inlineStr"/>
       <c r="P782" t="n">
@@ -60424,7 +60592,7 @@
         <v>0</v>
       </c>
       <c r="S782" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="T782" t="inlineStr">
         <is>
@@ -60433,7 +60601,7 @@
       </c>
       <c r="U782" t="inlineStr"/>
       <c r="V782" s="2" t="n">
-        <v>45212</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="783">
@@ -61267,7 +61435,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D794" t="inlineStr"/>
@@ -61291,7 +61459,11 @@
         </is>
       </c>
       <c r="L794" t="inlineStr"/>
-      <c r="M794" t="inlineStr"/>
+      <c r="M794" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N794" t="inlineStr"/>
       <c r="O794" t="inlineStr"/>
       <c r="P794" t="n">
@@ -61304,7 +61476,7 @@
         <v>0</v>
       </c>
       <c r="S794" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="T794" t="inlineStr">
         <is>
@@ -61313,7 +61485,7 @@
       </c>
       <c r="U794" t="inlineStr"/>
       <c r="V794" s="2" t="n">
-        <v>45229</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="795">
@@ -61767,7 +61939,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D800" t="inlineStr"/>
@@ -61783,7 +61955,7 @@
       <c r="N800" t="inlineStr"/>
       <c r="O800" t="inlineStr"/>
       <c r="P800" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q800" t="n">
         <v>0</v>
@@ -61792,7 +61964,7 @@
         <v>0</v>
       </c>
       <c r="S800" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="T800" t="inlineStr">
         <is>
@@ -61801,7 +61973,7 @@
       </c>
       <c r="U800" t="inlineStr"/>
       <c r="V800" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="801">
@@ -68847,7 +69019,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
@@ -68913,7 +69085,7 @@
       </c>
       <c r="U884" t="inlineStr"/>
       <c r="V884" s="2" t="n">
-        <v>45215</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="885">
@@ -69555,7 +69727,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
@@ -69616,7 +69788,7 @@
         <v>0</v>
       </c>
       <c r="S892" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="T892" t="inlineStr">
         <is>
@@ -69625,7 +69797,7 @@
       </c>
       <c r="U892" t="inlineStr"/>
       <c r="V892" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="893">
@@ -69817,7 +69989,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
@@ -69861,7 +70033,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M895" t="inlineStr"/>
+      <c r="M895" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N895" t="inlineStr"/>
       <c r="O895" t="inlineStr"/>
       <c r="P895" t="n">
@@ -69874,7 +70050,7 @@
         <v>0</v>
       </c>
       <c r="S895" t="n">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="T895" t="inlineStr">
         <is>
@@ -69883,7 +70059,7 @@
       </c>
       <c r="U895" t="inlineStr"/>
       <c r="V895" s="2" t="n">
-        <v>45216</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="896">
@@ -70335,7 +70511,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
@@ -70379,7 +70555,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M902" t="inlineStr"/>
+      <c r="M902" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N902" t="inlineStr"/>
       <c r="O902" t="inlineStr"/>
       <c r="P902" t="n">
@@ -70392,7 +70572,7 @@
         <v>0</v>
       </c>
       <c r="S902" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="T902" t="inlineStr">
         <is>
@@ -70401,7 +70581,7 @@
       </c>
       <c r="U902" t="inlineStr"/>
       <c r="V902" s="2" t="n">
-        <v>45210</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="903">
@@ -70729,7 +70909,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
@@ -70803,7 +70983,7 @@
       </c>
       <c r="U907" t="inlineStr"/>
       <c r="V907" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="908">
@@ -73017,7 +73197,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D937" t="inlineStr"/>
@@ -73033,7 +73213,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M937" t="inlineStr"/>
+      <c r="M937" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N937" t="inlineStr"/>
       <c r="O937" t="inlineStr"/>
       <c r="P937" t="n">
@@ -73046,7 +73230,7 @@
         <v>0</v>
       </c>
       <c r="S937" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T937" t="inlineStr">
         <is>
@@ -73055,7 +73239,7 @@
       </c>
       <c r="U937" t="inlineStr"/>
       <c r="V937" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="938">
@@ -73394,6 +73578,60 @@
         <v>45247</v>
       </c>
     </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Estado Mayor Conjunto (EMCO)</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>2023/11/20</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr"/>
+      <c r="E944" t="inlineStr"/>
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="inlineStr"/>
+      <c r="H944" t="inlineStr"/>
+      <c r="I944" t="inlineStr"/>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="inlineStr"/>
+      <c r="M944" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N944" t="inlineStr"/>
+      <c r="O944" t="inlineStr"/>
+      <c r="P944" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>0</v>
+      </c>
+      <c r="R944" t="n">
+        <v>0</v>
+      </c>
+      <c r="S944" t="n">
+        <v>2</v>
+      </c>
+      <c r="T944" t="inlineStr">
+        <is>
+          <t>AD023</t>
+        </is>
+      </c>
+      <c r="U944" t="inlineStr"/>
+      <c r="V944" s="2" t="n">
+        <v>45250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado7.xlsx
+++ b/consolidado7.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V993"/>
+  <dimension ref="A1:V995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3557,7 +3557,11 @@
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P48" t="n">
         <v>237</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -3577,7 +3581,7 @@
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" s="2" t="n">
-        <v>45266</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="49">
@@ -4507,7 +4511,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4580,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="S60" t="n">
-        <v>6403</v>
+        <v>6542</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -4589,7 +4593,7 @@
       </c>
       <c r="U60" t="inlineStr"/>
       <c r="V60" s="2" t="n">
-        <v>45280</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="61">
@@ -5661,7 +5665,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5715,9 +5719,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -5735,7 +5743,7 @@
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" s="2" t="n">
-        <v>45274</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="76">
@@ -10307,7 +10315,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -10376,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="T138" t="inlineStr">
         <is>
@@ -10385,7 +10393,7 @@
       </c>
       <c r="U138" t="inlineStr"/>
       <c r="V138" s="2" t="n">
-        <v>45260</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="139">
@@ -11455,7 +11463,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -11517,7 +11525,7 @@
       </c>
       <c r="U152" t="inlineStr"/>
       <c r="V152" s="2" t="n">
-        <v>45271</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="153">
@@ -11901,7 +11909,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -11966,7 +11974,7 @@
         <v>8</v>
       </c>
       <c r="S157" t="n">
-        <v>9093</v>
+        <v>9413</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -11979,7 +11987,7 @@
         </is>
       </c>
       <c r="V157" s="2" t="n">
-        <v>45279</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="158">
@@ -14033,7 +14041,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -14082,7 +14090,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
         <v>0</v>
@@ -14094,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>5450</v>
+        <v>5488</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -14103,7 +14115,7 @@
       </c>
       <c r="U183" t="inlineStr"/>
       <c r="V183" s="2" t="n">
-        <v>45257</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="184">
@@ -14437,7 +14449,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -14486,7 +14498,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="n">
         <v>0</v>
@@ -14498,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>1651</v>
+        <v>1831</v>
       </c>
       <c r="T189" t="inlineStr">
         <is>
@@ -14507,7 +14523,7 @@
       </c>
       <c r="U189" t="inlineStr"/>
       <c r="V189" s="2" t="n">
-        <v>45247</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="190">
@@ -15125,7 +15141,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -15178,7 +15194,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
         <v>11</v>
@@ -15190,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>7547</v>
+        <v>7682</v>
       </c>
       <c r="T197" t="inlineStr">
         <is>
@@ -15199,7 +15219,7 @@
       </c>
       <c r="U197" t="inlineStr"/>
       <c r="V197" s="2" t="n">
-        <v>45250</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="198">
@@ -15555,7 +15575,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -15568,7 +15588,11 @@
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="n">
         <v>2299</v>
@@ -15580,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="S202" t="n">
-        <v>2303</v>
+        <v>2373</v>
       </c>
       <c r="T202" t="inlineStr">
         <is>
@@ -15589,7 +15613,7 @@
       </c>
       <c r="U202" t="inlineStr"/>
       <c r="V202" s="2" t="n">
-        <v>45222</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="203">
@@ -16099,7 +16123,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -16148,7 +16172,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
         <v>0</v>
@@ -16160,7 +16188,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>1859</v>
+        <v>1881</v>
       </c>
       <c r="T210" t="inlineStr">
         <is>
@@ -16169,7 +16197,7 @@
       </c>
       <c r="U210" t="inlineStr"/>
       <c r="V210" s="2" t="n">
-        <v>45254</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="211">
@@ -17367,7 +17395,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -17425,7 +17453,7 @@
       </c>
       <c r="U228" t="inlineStr"/>
       <c r="V228" s="2" t="n">
-        <v>45212</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="229">
@@ -19061,7 +19089,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -19139,7 +19167,7 @@
       </c>
       <c r="U249" t="inlineStr"/>
       <c r="V249" s="2" t="n">
-        <v>45280</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="250">
@@ -19249,7 +19277,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -19283,7 +19311,7 @@
       </c>
       <c r="U251" t="inlineStr"/>
       <c r="V251" s="2" t="n">
-        <v>45250</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="252">
@@ -19299,7 +19327,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -19368,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="S252" t="n">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="T252" t="inlineStr">
         <is>
@@ -19377,7 +19405,7 @@
       </c>
       <c r="U252" t="inlineStr"/>
       <c r="V252" s="2" t="n">
-        <v>45274</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="253">
@@ -20299,7 +20327,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
@@ -20345,7 +20373,7 @@
       </c>
       <c r="U264" t="inlineStr"/>
       <c r="V264" s="2" t="n">
-        <v>45273</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="265">
@@ -22605,7 +22633,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -22678,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>2327</v>
+        <v>2343</v>
       </c>
       <c r="T293" t="inlineStr">
         <is>
@@ -22687,7 +22715,7 @@
       </c>
       <c r="U293" t="inlineStr"/>
       <c r="V293" s="2" t="n">
-        <v>45246</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="294">
@@ -24779,7 +24807,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -24857,7 +24885,7 @@
       </c>
       <c r="U320" t="inlineStr"/>
       <c r="V320" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="321">
@@ -28109,7 +28137,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -28182,7 +28210,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>29163</v>
+        <v>29618</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -28191,7 +28219,7 @@
       </c>
       <c r="U363" t="inlineStr"/>
       <c r="V363" s="2" t="n">
-        <v>45259</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="364">
@@ -30901,7 +30929,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -30979,7 +31007,7 @@
       </c>
       <c r="U399" t="inlineStr"/>
       <c r="V399" s="2" t="n">
-        <v>45280</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="400">
@@ -31443,7 +31471,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -31496,7 +31524,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N406" t="inlineStr"/>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="n">
         <v>0</v>
@@ -31508,7 +31540,7 @@
         <v>0</v>
       </c>
       <c r="S406" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="T406" t="inlineStr">
         <is>
@@ -31517,7 +31549,7 @@
       </c>
       <c r="U406" t="inlineStr"/>
       <c r="V406" s="2" t="n">
-        <v>45259</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="407">
@@ -31705,7 +31737,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -31779,7 +31811,7 @@
       </c>
       <c r="U409" t="inlineStr"/>
       <c r="V409" s="2" t="n">
-        <v>45232</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="410">
@@ -32667,7 +32699,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
@@ -32693,7 +32725,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O422" t="inlineStr"/>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P422" t="n">
         <v>0</v>
       </c>
@@ -32704,7 +32740,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -32713,7 +32749,7 @@
       </c>
       <c r="U422" t="inlineStr"/>
       <c r="V422" s="2" t="n">
-        <v>45267</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="423">
@@ -33151,7 +33187,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
@@ -33189,7 +33225,7 @@
       </c>
       <c r="U428" t="inlineStr"/>
       <c r="V428" s="2" t="n">
-        <v>45238</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="429">
@@ -33903,7 +33939,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -33956,7 +33992,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N438" t="inlineStr"/>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="n">
         <v>26</v>
@@ -33968,7 +34008,7 @@
         <v>27</v>
       </c>
       <c r="S438" t="n">
-        <v>6634</v>
+        <v>6942</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -33977,7 +34017,7 @@
       </c>
       <c r="U438" t="inlineStr"/>
       <c r="V438" s="2" t="n">
-        <v>45275</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="439">
@@ -35313,7 +35353,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -35351,8 +35391,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M455" t="inlineStr"/>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr"/>
@@ -35366,7 +35414,7 @@
         <v>0</v>
       </c>
       <c r="S455" t="n">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="T455" t="inlineStr">
         <is>
@@ -35375,7 +35423,7 @@
       </c>
       <c r="U455" t="inlineStr"/>
       <c r="V455" s="2" t="n">
-        <v>45215</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="456">
@@ -38433,7 +38481,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
@@ -38467,7 +38515,7 @@
       </c>
       <c r="U499" t="inlineStr"/>
       <c r="V499" s="2" t="n">
-        <v>45272</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="500">
@@ -39573,7 +39621,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -39642,7 +39690,7 @@
         <v>0</v>
       </c>
       <c r="S513" t="n">
-        <v>4914</v>
+        <v>4915</v>
       </c>
       <c r="T513" t="inlineStr">
         <is>
@@ -39651,7 +39699,7 @@
       </c>
       <c r="U513" t="inlineStr"/>
       <c r="V513" s="2" t="n">
-        <v>45282</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="514">
@@ -39925,7 +39973,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
@@ -39959,7 +40007,7 @@
       </c>
       <c r="U517" t="inlineStr"/>
       <c r="V517" s="2" t="n">
-        <v>45246</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="518">
@@ -40625,7 +40673,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -40681,7 +40729,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -40703,7 +40751,7 @@
         </is>
       </c>
       <c r="V525" s="2" t="n">
-        <v>45275</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="526">
@@ -40969,7 +41017,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -40991,7 +41039,11 @@
       <c r="L529" t="inlineStr"/>
       <c r="M529" t="inlineStr"/>
       <c r="N529" t="inlineStr"/>
-      <c r="O529" t="inlineStr"/>
+      <c r="O529" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P529" t="n">
         <v>4</v>
       </c>
@@ -41002,7 +41054,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="T529" t="inlineStr">
         <is>
@@ -41011,7 +41063,7 @@
       </c>
       <c r="U529" t="inlineStr"/>
       <c r="V529" s="2" t="n">
-        <v>45258</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="530">
@@ -41315,7 +41367,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -41388,7 +41440,7 @@
         <v>9</v>
       </c>
       <c r="S534" t="n">
-        <v>2420</v>
+        <v>2427</v>
       </c>
       <c r="T534" t="inlineStr">
         <is>
@@ -41397,7 +41449,7 @@
       </c>
       <c r="U534" t="inlineStr"/>
       <c r="V534" s="2" t="n">
-        <v>45275</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="535">
@@ -41687,7 +41739,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
@@ -41698,12 +41750,28 @@
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
-      <c r="M538" t="inlineStr"/>
-      <c r="N538" t="inlineStr"/>
-      <c r="O538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P538" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q538" t="n">
         <v>0</v>
@@ -41712,7 +41780,7 @@
         <v>0</v>
       </c>
       <c r="S538" t="n">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="T538" t="inlineStr">
         <is>
@@ -41721,7 +41789,7 @@
       </c>
       <c r="U538" t="inlineStr"/>
       <c r="V538" s="2" t="n">
-        <v>45201</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="539">
@@ -42767,7 +42835,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
@@ -42801,7 +42869,7 @@
       </c>
       <c r="U552" t="inlineStr"/>
       <c r="V552" s="2" t="n">
-        <v>45279</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="553">
@@ -43121,7 +43189,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -43169,7 +43237,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M557" t="inlineStr"/>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="n">
@@ -43182,7 +43254,7 @@
         <v>0</v>
       </c>
       <c r="S557" t="n">
-        <v>1245</v>
+        <v>1254</v>
       </c>
       <c r="T557" t="inlineStr">
         <is>
@@ -43191,7 +43263,7 @@
       </c>
       <c r="U557" t="inlineStr"/>
       <c r="V557" s="2" t="n">
-        <v>45223</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="558">
@@ -46057,7 +46129,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/25</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
@@ -46091,7 +46163,7 @@
       </c>
       <c r="U593" t="inlineStr"/>
       <c r="V593" s="2" t="n">
-        <v>45240</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="594">
@@ -46291,7 +46363,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -46312,14 +46384,26 @@
       <c r="G596" t="inlineStr"/>
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M596" t="inlineStr"/>
-      <c r="N596" t="inlineStr"/>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O596" t="inlineStr"/>
       <c r="P596" t="n">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q596" t="n">
         <v>2</v>
@@ -46328,7 +46412,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="n">
-        <v>2677</v>
+        <v>2689</v>
       </c>
       <c r="T596" t="inlineStr">
         <is>
@@ -46337,7 +46421,7 @@
       </c>
       <c r="U596" t="inlineStr"/>
       <c r="V596" s="2" t="n">
-        <v>45275</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="597">
@@ -47315,7 +47399,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -47384,7 +47468,7 @@
         <v>209</v>
       </c>
       <c r="S610" t="n">
-        <v>28987</v>
+        <v>29190</v>
       </c>
       <c r="T610" t="inlineStr">
         <is>
@@ -47393,7 +47477,7 @@
       </c>
       <c r="U610" t="inlineStr"/>
       <c r="V610" s="2" t="n">
-        <v>45275</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="611">
@@ -47507,7 +47591,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -47556,7 +47640,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N612" t="inlineStr"/>
+      <c r="N612" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O612" t="inlineStr"/>
       <c r="P612" t="n">
         <v>11</v>
@@ -47568,7 +47656,7 @@
         <v>0</v>
       </c>
       <c r="S612" t="n">
-        <v>2573</v>
+        <v>2596</v>
       </c>
       <c r="T612" t="inlineStr">
         <is>
@@ -47581,7 +47669,7 @@
         </is>
       </c>
       <c r="V612" s="2" t="n">
-        <v>45240</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="613">
@@ -49079,7 +49167,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -49132,7 +49220,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N632" t="inlineStr"/>
+      <c r="N632" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O632" t="inlineStr"/>
       <c r="P632" t="n">
         <v>1572</v>
@@ -49144,7 +49236,7 @@
         <v>0</v>
       </c>
       <c r="S632" t="n">
-        <v>5972</v>
+        <v>5998</v>
       </c>
       <c r="T632" t="inlineStr">
         <is>
@@ -49153,7 +49245,7 @@
       </c>
       <c r="U632" t="inlineStr"/>
       <c r="V632" s="2" t="n">
-        <v>45273</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="633">
@@ -49411,7 +49503,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>2023/08/11</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -49449,10 +49541,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
-      <c r="M636" t="inlineStr"/>
-      <c r="N636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N636" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O636" t="inlineStr"/>
       <c r="P636" t="n">
         <v>0</v>
@@ -49464,7 +49572,7 @@
         <v>0</v>
       </c>
       <c r="S636" t="n">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="T636" t="inlineStr">
         <is>
@@ -49473,7 +49581,7 @@
       </c>
       <c r="U636" t="inlineStr"/>
       <c r="V636" s="2" t="n">
-        <v>45149</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="637">
@@ -49723,7 +49831,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
@@ -49757,7 +49865,7 @@
       </c>
       <c r="U640" t="inlineStr"/>
       <c r="V640" s="2" t="n">
-        <v>45281</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="641">
@@ -51653,7 +51761,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
@@ -51699,7 +51807,7 @@
         </is>
       </c>
       <c r="V663" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="664">
@@ -52271,7 +52379,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -52340,7 +52448,7 @@
         <v>0</v>
       </c>
       <c r="S670" t="n">
-        <v>2347</v>
+        <v>2372</v>
       </c>
       <c r="T670" t="inlineStr">
         <is>
@@ -52349,7 +52457,7 @@
       </c>
       <c r="U670" t="inlineStr"/>
       <c r="V670" s="2" t="n">
-        <v>45275</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="671">
@@ -52365,7 +52473,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -52439,7 +52547,7 @@
         </is>
       </c>
       <c r="V671" s="2" t="n">
-        <v>45273</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="672">
@@ -53443,7 +53551,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -53501,7 +53609,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O684" t="inlineStr"/>
+      <c r="O684" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P684" t="n">
         <v>18</v>
       </c>
@@ -53512,7 +53624,7 @@
         <v>213</v>
       </c>
       <c r="S684" t="n">
-        <v>2247</v>
+        <v>2474</v>
       </c>
       <c r="T684" t="inlineStr">
         <is>
@@ -53521,7 +53633,7 @@
       </c>
       <c r="U684" t="inlineStr"/>
       <c r="V684" s="2" t="n">
-        <v>45275</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="685">
@@ -53635,7 +53747,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -53709,7 +53821,7 @@
       </c>
       <c r="U686" t="inlineStr"/>
       <c r="V686" s="2" t="n">
-        <v>45281</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="687">
@@ -54633,7 +54745,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -54702,7 +54814,7 @@
         <v>4</v>
       </c>
       <c r="S697" t="n">
-        <v>12037</v>
+        <v>12085</v>
       </c>
       <c r="T697" t="inlineStr">
         <is>
@@ -54711,7 +54823,7 @@
       </c>
       <c r="U697" t="inlineStr"/>
       <c r="V697" s="2" t="n">
-        <v>45275</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="698">
@@ -55971,7 +56083,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -56049,7 +56161,7 @@
       </c>
       <c r="U714" t="inlineStr"/>
       <c r="V714" s="2" t="n">
-        <v>45274</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="715">
@@ -57491,7 +57603,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -57569,7 +57681,7 @@
       </c>
       <c r="U732" t="inlineStr"/>
       <c r="V732" s="2" t="n">
-        <v>45266</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="733">
@@ -58179,7 +58291,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -58228,7 +58340,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N740" t="inlineStr"/>
+      <c r="N740" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O740" t="inlineStr"/>
       <c r="P740" t="n">
         <v>25</v>
@@ -58240,7 +58356,7 @@
         <v>6</v>
       </c>
       <c r="S740" t="n">
-        <v>5083</v>
+        <v>5155</v>
       </c>
       <c r="T740" t="inlineStr">
         <is>
@@ -58253,7 +58369,7 @@
         </is>
       </c>
       <c r="V740" s="2" t="n">
-        <v>45257</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="741">
@@ -59829,7 +59945,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -59898,7 +60014,7 @@
         <v>0</v>
       </c>
       <c r="S759" t="n">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="T759" t="inlineStr">
         <is>
@@ -59911,7 +60027,7 @@
         </is>
       </c>
       <c r="V759" s="2" t="n">
-        <v>45282</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="760">
@@ -62095,7 +62211,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -62153,7 +62269,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O786" t="inlineStr"/>
+      <c r="O786" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P786" t="n">
         <v>0</v>
       </c>
@@ -62164,7 +62284,7 @@
         <v>0</v>
       </c>
       <c r="S786" t="n">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="T786" t="inlineStr">
         <is>
@@ -62173,7 +62293,7 @@
       </c>
       <c r="U786" t="inlineStr"/>
       <c r="V786" s="2" t="n">
-        <v>45272</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="787">
@@ -62641,7 +62761,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -62701,7 +62821,7 @@
       </c>
       <c r="O793" t="inlineStr"/>
       <c r="P793" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q793" t="n">
         <v>0</v>
@@ -62710,7 +62830,7 @@
         <v>9</v>
       </c>
       <c r="S793" t="n">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="T793" t="inlineStr">
         <is>
@@ -62719,7 +62839,7 @@
       </c>
       <c r="U793" t="inlineStr"/>
       <c r="V793" s="2" t="n">
-        <v>45280</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="794">
@@ -64545,7 +64665,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>2023/04/21</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
@@ -64563,12 +64683,36 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G817" t="inlineStr"/>
-      <c r="H817" t="inlineStr"/>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M817" t="inlineStr"/>
       <c r="N817" t="inlineStr"/>
       <c r="O817" t="inlineStr"/>
@@ -64582,7 +64726,7 @@
         <v>0</v>
       </c>
       <c r="S817" t="n">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="T817" t="inlineStr">
         <is>
@@ -64591,7 +64735,7 @@
       </c>
       <c r="U817" t="inlineStr"/>
       <c r="V817" s="2" t="n">
-        <v>45037</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="818">
@@ -71485,7 +71629,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
@@ -71529,8 +71673,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M897" t="inlineStr"/>
-      <c r="N897" t="inlineStr"/>
+      <c r="M897" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N897" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O897" t="inlineStr"/>
       <c r="P897" t="n">
         <v>0</v>
@@ -71542,7 +71694,7 @@
         <v>0</v>
       </c>
       <c r="S897" t="n">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="T897" t="inlineStr">
         <is>
@@ -71551,7 +71703,7 @@
       </c>
       <c r="U897" t="inlineStr"/>
       <c r="V897" s="2" t="n">
-        <v>45275</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="898">
@@ -71849,7 +72001,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
@@ -71927,7 +72079,7 @@
       </c>
       <c r="U901" t="inlineStr"/>
       <c r="V901" s="2" t="n">
-        <v>45278</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="902">
@@ -73179,7 +73331,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D916" t="inlineStr">
@@ -73232,7 +73384,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N916" t="inlineStr"/>
+      <c r="N916" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O916" t="inlineStr"/>
       <c r="P916" t="n">
         <v>0</v>
@@ -73244,7 +73400,7 @@
         <v>0</v>
       </c>
       <c r="S916" t="n">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="T916" t="inlineStr">
         <is>
@@ -73253,7 +73409,7 @@
       </c>
       <c r="U916" t="inlineStr"/>
       <c r="V916" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="917">
@@ -75087,7 +75243,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -75165,7 +75321,7 @@
       </c>
       <c r="U938" t="inlineStr"/>
       <c r="V938" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="939">
@@ -75629,7 +75785,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D945" t="inlineStr">
@@ -75677,8 +75833,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M945" t="inlineStr"/>
-      <c r="N945" t="inlineStr"/>
+      <c r="M945" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O945" t="inlineStr"/>
       <c r="P945" t="n">
         <v>0</v>
@@ -75690,7 +75854,7 @@
         <v>0</v>
       </c>
       <c r="S945" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T945" t="inlineStr">
         <is>
@@ -75699,7 +75863,7 @@
       </c>
       <c r="U945" t="inlineStr"/>
       <c r="V945" s="2" t="n">
-        <v>45239</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="946">
@@ -75907,7 +76071,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
@@ -75945,7 +76109,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L948" t="inlineStr">
         <is>
           <t>x</t>
@@ -75972,7 +76140,7 @@
         <v>0</v>
       </c>
       <c r="S948" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="T948" t="inlineStr">
         <is>
@@ -75981,7 +76149,7 @@
       </c>
       <c r="U948" t="inlineStr"/>
       <c r="V948" s="2" t="n">
-        <v>45281</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="949">
@@ -75997,7 +76165,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D949" t="inlineStr"/>
@@ -76009,8 +76177,16 @@
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
       <c r="L949" t="inlineStr"/>
-      <c r="M949" t="inlineStr"/>
-      <c r="N949" t="inlineStr"/>
+      <c r="M949" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N949" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O949" t="inlineStr"/>
       <c r="P949" t="n">
         <v>51</v>
@@ -76022,7 +76198,7 @@
         <v>0</v>
       </c>
       <c r="S949" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="T949" t="inlineStr">
         <is>
@@ -76031,7 +76207,7 @@
       </c>
       <c r="U949" t="inlineStr"/>
       <c r="V949" s="2" t="n">
-        <v>45278</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="950">
@@ -78914,6 +79090,110 @@
         <v>45275</v>
       </c>
     </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Armada de Chile</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>2023/12/28</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="inlineStr"/>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="inlineStr"/>
+      <c r="H994" t="inlineStr"/>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
+      <c r="L994" t="inlineStr"/>
+      <c r="M994" t="inlineStr"/>
+      <c r="N994" t="inlineStr"/>
+      <c r="O994" t="inlineStr"/>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>0</v>
+      </c>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
+      <c r="S994" t="n">
+        <v>1</v>
+      </c>
+      <c r="T994" t="inlineStr">
+        <is>
+          <t>AD007</t>
+        </is>
+      </c>
+      <c r="U994" t="inlineStr"/>
+      <c r="V994" s="2" t="n">
+        <v>45288</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Instituto Nacional del Cáncer</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>2023/12/29</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="inlineStr"/>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="inlineStr"/>
+      <c r="H995" t="inlineStr"/>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
+      <c r="L995" t="inlineStr"/>
+      <c r="M995" t="inlineStr"/>
+      <c r="N995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O995" t="inlineStr"/>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
+      <c r="S995" t="n">
+        <v>1</v>
+      </c>
+      <c r="T995" t="inlineStr">
+        <is>
+          <t>AO108</t>
+        </is>
+      </c>
+      <c r="U995" t="inlineStr"/>
+      <c r="V995" s="2" t="n">
+        <v>45289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado7.xlsx
+++ b/consolidado7.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V995"/>
+  <dimension ref="A1:V999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="4">
@@ -921,7 +921,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" s="2" t="n">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="8">
@@ -975,7 +975,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="9">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1209,7 +1209,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1229,7 +1233,7 @@
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" s="2" t="n">
-        <v>45266</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="13">
@@ -1743,7 +1747,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1761,7 +1765,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
@@ -1772,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -1781,7 +1789,7 @@
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="23">
@@ -1851,7 +1859,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1869,7 +1877,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -1889,7 +1901,7 @@
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="25">
@@ -2121,7 +2133,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2139,7 +2151,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
@@ -2150,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2159,7 +2175,7 @@
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" s="2" t="n">
-        <v>45266</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="30">
@@ -2229,7 +2245,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2267,7 +2283,7 @@
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" s="2" t="n">
-        <v>45267</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="32">
@@ -2517,7 +2533,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2570,7 +2586,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
         <v>0</v>
@@ -2582,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -2591,7 +2611,7 @@
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" s="2" t="n">
-        <v>45260</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="36">
@@ -2677,7 +2697,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2723,7 +2743,7 @@
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" s="2" t="n">
-        <v>45266</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="38">
@@ -2739,7 +2759,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2774,10 +2794,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P38" t="n">
         <v>10</v>
       </c>
@@ -2788,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -2797,7 +2833,7 @@
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" s="2" t="n">
-        <v>45222</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="39">
@@ -2813,7 +2849,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2883,7 +2919,7 @@
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="40">
@@ -2899,7 +2935,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2973,7 +3009,7 @@
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" s="2" t="n">
-        <v>45266</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="41">
@@ -3079,7 +3115,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3125,7 +3161,11 @@
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
@@ -3136,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -3145,7 +3185,7 @@
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="43">
@@ -3539,7 +3579,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3572,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -3581,7 +3621,7 @@
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" s="2" t="n">
-        <v>45289</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="49">
@@ -4425,7 +4465,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023/12/17</t>
+          <t>2024/01/01</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4486,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>103164</v>
+        <v>103186</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -4495,7 +4535,7 @@
       </c>
       <c r="U59" t="inlineStr"/>
       <c r="V59" s="2" t="n">
-        <v>45277</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="60">
@@ -4609,7 +4649,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4687,7 +4727,7 @@
       </c>
       <c r="U61" t="inlineStr"/>
       <c r="V61" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="62">
@@ -4803,7 +4843,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -4821,7 +4861,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P64" t="n">
         <v>24</v>
       </c>
@@ -4832,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -4841,7 +4885,7 @@
       </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="65">
@@ -5665,7 +5709,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5743,7 +5787,7 @@
       </c>
       <c r="U75" t="inlineStr"/>
       <c r="V75" s="2" t="n">
-        <v>45289</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="76">
@@ -8275,7 +8319,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -8333,7 +8377,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P108" t="n">
         <v>3</v>
       </c>
@@ -8344,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -8353,7 +8401,7 @@
       </c>
       <c r="U108" t="inlineStr"/>
       <c r="V108" s="2" t="n">
-        <v>45267</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="109">
@@ -8567,7 +8615,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/12/30</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -8591,7 +8639,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J112" t="inlineStr">
         <is>
           <t>x</t>
@@ -8603,11 +8655,19 @@
         </is>
       </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q112" t="n">
         <v>136</v>
@@ -8616,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -8625,7 +8685,7 @@
       </c>
       <c r="U112" t="inlineStr"/>
       <c r="V112" s="2" t="n">
-        <v>45222</v>
+        <v>45290</v>
       </c>
     </row>
     <row r="113">
@@ -9245,7 +9305,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -9279,7 +9339,7 @@
       </c>
       <c r="U121" t="inlineStr"/>
       <c r="V121" s="2" t="n">
-        <v>45266</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="122">
@@ -9411,7 +9471,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -9445,7 +9505,7 @@
       </c>
       <c r="U124" t="inlineStr"/>
       <c r="V124" s="2" t="n">
-        <v>45264</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="125">
@@ -9461,7 +9521,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -9495,7 +9555,7 @@
       </c>
       <c r="U125" t="inlineStr"/>
       <c r="V125" s="2" t="n">
-        <v>45264</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="126">
@@ -9615,7 +9675,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -9649,7 +9709,7 @@
       </c>
       <c r="U128" t="inlineStr"/>
       <c r="V128" s="2" t="n">
-        <v>45209</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="129">
@@ -9665,7 +9725,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -9703,7 +9763,7 @@
       </c>
       <c r="U129" t="inlineStr"/>
       <c r="V129" s="2" t="n">
-        <v>45264</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="130">
@@ -9883,7 +9943,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -9917,7 +9977,7 @@
       </c>
       <c r="U132" t="inlineStr"/>
       <c r="V132" s="2" t="n">
-        <v>45264</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="133">
@@ -10507,7 +10567,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -10576,7 +10636,7 @@
         <v>81</v>
       </c>
       <c r="S140" t="n">
-        <v>53925</v>
+        <v>55158</v>
       </c>
       <c r="T140" t="inlineStr">
         <is>
@@ -10585,7 +10645,7 @@
       </c>
       <c r="U140" t="inlineStr"/>
       <c r="V140" s="2" t="n">
-        <v>45273</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="141">
@@ -11541,7 +11601,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -11594,7 +11654,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="n">
         <v>0</v>
@@ -11606,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>3828</v>
+        <v>4057</v>
       </c>
       <c r="T153" t="inlineStr">
         <is>
@@ -11615,7 +11679,7 @@
       </c>
       <c r="U153" t="inlineStr"/>
       <c r="V153" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="154">
@@ -12003,7 +12067,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -12053,9 +12117,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
@@ -12064,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
@@ -12073,7 +12141,7 @@
       </c>
       <c r="U158" t="inlineStr"/>
       <c r="V158" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="159">
@@ -13145,7 +13213,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13223,7 +13291,7 @@
       </c>
       <c r="U171" t="inlineStr"/>
       <c r="V171" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="172">
@@ -16931,7 +16999,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -17005,7 +17073,7 @@
       </c>
       <c r="U222" t="inlineStr"/>
       <c r="V222" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="223">
@@ -17211,7 +17279,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -17281,7 +17349,7 @@
       </c>
       <c r="U226" t="inlineStr"/>
       <c r="V226" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="227">
@@ -18351,7 +18419,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -18404,7 +18472,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="n">
         <v>0</v>
@@ -18416,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>3163</v>
+        <v>3171</v>
       </c>
       <c r="T240" t="inlineStr">
         <is>
@@ -18425,7 +18497,7 @@
       </c>
       <c r="U240" t="inlineStr"/>
       <c r="V240" s="2" t="n">
-        <v>45266</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="241">
@@ -18671,7 +18743,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -18719,8 +18791,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="n">
         <v>0</v>
@@ -18732,7 +18812,7 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>3447</v>
+        <v>3478</v>
       </c>
       <c r="T244" t="inlineStr">
         <is>
@@ -18741,7 +18821,7 @@
       </c>
       <c r="U244" t="inlineStr"/>
       <c r="V244" s="2" t="n">
-        <v>45205</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="245">
@@ -19277,7 +19357,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -19311,7 +19391,7 @@
       </c>
       <c r="U251" t="inlineStr"/>
       <c r="V251" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="252">
@@ -19327,7 +19407,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -19405,7 +19485,7 @@
       </c>
       <c r="U252" t="inlineStr"/>
       <c r="V252" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="253">
@@ -20327,7 +20407,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
@@ -20373,7 +20453,7 @@
       </c>
       <c r="U264" t="inlineStr"/>
       <c r="V264" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="265">
@@ -20979,7 +21059,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -21044,7 +21124,7 @@
         <v>9</v>
       </c>
       <c r="S272" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="T272" t="inlineStr">
         <is>
@@ -21053,7 +21133,7 @@
       </c>
       <c r="U272" t="inlineStr"/>
       <c r="V272" s="2" t="n">
-        <v>45264</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="273">
@@ -22579,7 +22659,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
@@ -22617,7 +22697,7 @@
       </c>
       <c r="U292" t="inlineStr"/>
       <c r="V292" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="293">
@@ -23031,7 +23111,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -23089,7 +23169,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O298" t="inlineStr"/>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P298" t="n">
         <v>0</v>
       </c>
@@ -23100,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="S298" t="n">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="T298" t="inlineStr">
         <is>
@@ -23109,7 +23193,7 @@
       </c>
       <c r="U298" t="inlineStr"/>
       <c r="V298" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="299">
@@ -23673,7 +23757,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2023/12/09</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -23715,7 +23799,7 @@
       </c>
       <c r="U305" t="inlineStr"/>
       <c r="V305" s="2" t="n">
-        <v>45269</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24891,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -24885,7 +24969,7 @@
       </c>
       <c r="U320" t="inlineStr"/>
       <c r="V320" s="2" t="n">
-        <v>45289</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="321">
@@ -25255,7 +25339,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -25313,7 +25397,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O326" t="inlineStr"/>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P326" t="n">
         <v>7</v>
       </c>
@@ -25324,7 +25412,7 @@
         <v>224</v>
       </c>
       <c r="S326" t="n">
-        <v>8011</v>
+        <v>8033</v>
       </c>
       <c r="T326" t="inlineStr">
         <is>
@@ -25337,7 +25425,7 @@
         </is>
       </c>
       <c r="V326" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="327">
@@ -25353,7 +25441,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -25399,7 +25487,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O327" t="inlineStr"/>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P327" t="n">
         <v>0</v>
       </c>
@@ -25410,7 +25502,7 @@
         <v>6</v>
       </c>
       <c r="S327" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -25419,7 +25511,7 @@
       </c>
       <c r="U327" t="inlineStr"/>
       <c r="V327" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="328">
@@ -26041,7 +26133,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -26119,7 +26211,7 @@
       </c>
       <c r="U335" t="inlineStr"/>
       <c r="V335" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="336">
@@ -26583,7 +26675,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -26661,7 +26753,7 @@
       </c>
       <c r="U342" t="inlineStr"/>
       <c r="V342" s="2" t="n">
-        <v>45282</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="343">
@@ -27083,7 +27175,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D348" t="inlineStr"/>
@@ -27121,7 +27213,7 @@
       </c>
       <c r="U348" t="inlineStr"/>
       <c r="V348" s="2" t="n">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="349">
@@ -27365,7 +27457,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -27447,7 +27539,7 @@
       </c>
       <c r="U353" t="inlineStr"/>
       <c r="V353" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="354">
@@ -27463,7 +27555,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D354" t="inlineStr"/>
@@ -27497,7 +27589,7 @@
       </c>
       <c r="U354" t="inlineStr"/>
       <c r="V354" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="355">
@@ -28765,7 +28857,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -28823,7 +28915,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O371" t="inlineStr"/>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P371" t="n">
         <v>0</v>
       </c>
@@ -28834,7 +28930,7 @@
         <v>0</v>
       </c>
       <c r="S371" t="n">
-        <v>28984</v>
+        <v>29272</v>
       </c>
       <c r="T371" t="inlineStr">
         <is>
@@ -28847,7 +28943,7 @@
         </is>
       </c>
       <c r="V371" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="372">
@@ -29069,7 +29165,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -29131,7 +29227,7 @@
       </c>
       <c r="U375" t="inlineStr"/>
       <c r="V375" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="376">
@@ -29777,7 +29873,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -29831,7 +29927,7 @@
       </c>
       <c r="U383" t="inlineStr"/>
       <c r="V383" s="2" t="n">
-        <v>45257</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="384">
@@ -31737,7 +31833,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -31811,7 +31907,7 @@
       </c>
       <c r="U409" t="inlineStr"/>
       <c r="V409" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="410">
@@ -32605,7 +32701,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -32663,7 +32759,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O421" t="inlineStr"/>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P421" t="n">
         <v>0</v>
       </c>
@@ -32674,7 +32774,7 @@
         <v>7</v>
       </c>
       <c r="S421" t="n">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="T421" t="inlineStr">
         <is>
@@ -32683,7 +32783,7 @@
       </c>
       <c r="U421" t="inlineStr"/>
       <c r="V421" s="2" t="n">
-        <v>45271</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="422">
@@ -33557,7 +33657,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
@@ -33591,7 +33691,7 @@
       </c>
       <c r="U433" t="inlineStr"/>
       <c r="V433" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="434">
@@ -33751,7 +33851,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -33829,7 +33929,7 @@
       </c>
       <c r="U436" t="inlineStr"/>
       <c r="V436" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="437">
@@ -34463,7 +34563,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
@@ -34497,7 +34597,7 @@
       </c>
       <c r="U444" t="inlineStr"/>
       <c r="V444" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="445">
@@ -36065,7 +36165,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
@@ -36099,7 +36199,7 @@
       </c>
       <c r="U465" t="inlineStr"/>
       <c r="V465" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="466">
@@ -36605,7 +36705,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -36659,7 +36759,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O473" t="inlineStr"/>
+      <c r="O473" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P473" t="n">
         <v>8</v>
       </c>
@@ -36670,7 +36774,7 @@
         <v>1</v>
       </c>
       <c r="S473" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="T473" t="inlineStr">
         <is>
@@ -36679,7 +36783,7 @@
       </c>
       <c r="U473" t="inlineStr"/>
       <c r="V473" s="2" t="n">
-        <v>45267</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="474">
@@ -36985,7 +37089,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -37035,7 +37139,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O479" t="inlineStr"/>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P479" t="n">
         <v>0</v>
       </c>
@@ -37046,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="S479" t="n">
-        <v>305</v>
+        <v>541</v>
       </c>
       <c r="T479" t="inlineStr">
         <is>
@@ -37055,7 +37163,7 @@
       </c>
       <c r="U479" t="inlineStr"/>
       <c r="V479" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="480">
@@ -38989,7 +39097,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -39049,7 +39157,7 @@
       </c>
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q505" t="n">
         <v>0</v>
@@ -39058,7 +39166,7 @@
         <v>0</v>
       </c>
       <c r="S505" t="n">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="T505" t="inlineStr">
         <is>
@@ -39067,7 +39175,7 @@
       </c>
       <c r="U505" t="inlineStr"/>
       <c r="V505" s="2" t="n">
-        <v>45281</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="506">
@@ -39527,7 +39635,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -39585,7 +39693,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O512" t="inlineStr"/>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P512" t="n">
         <v>34</v>
       </c>
@@ -39596,7 +39708,7 @@
         <v>5</v>
       </c>
       <c r="S512" t="n">
-        <v>8099</v>
+        <v>8104</v>
       </c>
       <c r="T512" t="inlineStr">
         <is>
@@ -39605,7 +39717,7 @@
       </c>
       <c r="U512" t="inlineStr"/>
       <c r="V512" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="513">
@@ -39809,7 +39921,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -39875,7 +39987,7 @@
       </c>
       <c r="U515" t="inlineStr"/>
       <c r="V515" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="516">
@@ -39891,7 +40003,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
@@ -39937,7 +40049,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O516" t="inlineStr"/>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P516" t="n">
         <v>78</v>
       </c>
@@ -39948,7 +40064,7 @@
         <v>3</v>
       </c>
       <c r="S516" t="n">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="T516" t="inlineStr">
         <is>
@@ -39957,7 +40073,7 @@
       </c>
       <c r="U516" t="inlineStr"/>
       <c r="V516" s="2" t="n">
-        <v>45266</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="517">
@@ -41367,7 +41483,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/01</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -41440,7 +41556,7 @@
         <v>9</v>
       </c>
       <c r="S534" t="n">
-        <v>2427</v>
+        <v>2469</v>
       </c>
       <c r="T534" t="inlineStr">
         <is>
@@ -41449,7 +41565,7 @@
       </c>
       <c r="U534" t="inlineStr"/>
       <c r="V534" s="2" t="n">
-        <v>45287</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="535">
@@ -41645,7 +41761,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -41703,7 +41819,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O537" t="inlineStr"/>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P537" t="n">
         <v>2</v>
       </c>
@@ -41714,7 +41834,7 @@
         <v>49</v>
       </c>
       <c r="S537" t="n">
-        <v>5359</v>
+        <v>5380</v>
       </c>
       <c r="T537" t="inlineStr">
         <is>
@@ -41723,7 +41843,7 @@
       </c>
       <c r="U537" t="inlineStr"/>
       <c r="V537" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="538">
@@ -41899,7 +42019,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -41937,7 +42057,7 @@
       </c>
       <c r="U540" t="inlineStr"/>
       <c r="V540" s="2" t="n">
-        <v>45261</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="541">
@@ -42671,7 +42791,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -42729,7 +42849,7 @@
       </c>
       <c r="U550" t="inlineStr"/>
       <c r="V550" s="2" t="n">
-        <v>45267</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="551">
@@ -42835,7 +42955,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
@@ -42869,7 +42989,7 @@
       </c>
       <c r="U552" t="inlineStr"/>
       <c r="V552" s="2" t="n">
-        <v>45288</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="553">
@@ -43041,7 +43161,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
@@ -43079,7 +43199,7 @@
       </c>
       <c r="U555" t="inlineStr"/>
       <c r="V555" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="556">
@@ -43673,7 +43793,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -43731,7 +43851,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O563" t="inlineStr"/>
+      <c r="O563" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P563" t="n">
         <v>611</v>
       </c>
@@ -43742,7 +43866,7 @@
         <v>0</v>
       </c>
       <c r="S563" t="n">
-        <v>3421</v>
+        <v>3462</v>
       </c>
       <c r="T563" t="inlineStr">
         <is>
@@ -43751,7 +43875,7 @@
       </c>
       <c r="U563" t="inlineStr"/>
       <c r="V563" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="564">
@@ -43767,7 +43891,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -43825,7 +43949,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O564" t="inlineStr"/>
+      <c r="O564" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P564" t="n">
         <v>1</v>
       </c>
@@ -43836,7 +43964,7 @@
         <v>3</v>
       </c>
       <c r="S564" t="n">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="T564" t="inlineStr">
         <is>
@@ -43845,7 +43973,7 @@
       </c>
       <c r="U564" t="inlineStr"/>
       <c r="V564" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="565">
@@ -43959,7 +44087,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D566" t="inlineStr"/>
@@ -43993,7 +44121,7 @@
       </c>
       <c r="U566" t="inlineStr"/>
       <c r="V566" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="567">
@@ -44791,7 +44919,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -44844,7 +44972,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N576" t="inlineStr"/>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O576" t="inlineStr"/>
       <c r="P576" t="n">
         <v>3</v>
@@ -44856,7 +44988,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>5296</v>
+        <v>5343</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -44865,7 +44997,7 @@
       </c>
       <c r="U576" t="inlineStr"/>
       <c r="V576" s="2" t="n">
-        <v>45264</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="577">
@@ -45645,7 +45777,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -45714,7 +45846,7 @@
         <v>24</v>
       </c>
       <c r="S587" t="n">
-        <v>15456</v>
+        <v>15549</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -45723,7 +45855,7 @@
       </c>
       <c r="U587" t="inlineStr"/>
       <c r="V587" s="2" t="n">
-        <v>45265</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="588">
@@ -46035,7 +46167,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -46093,7 +46225,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O592" t="inlineStr"/>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P592" t="n">
         <v>32</v>
       </c>
@@ -46104,7 +46240,7 @@
         <v>7</v>
       </c>
       <c r="S592" t="n">
-        <v>24535</v>
+        <v>24557</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -46113,7 +46249,7 @@
       </c>
       <c r="U592" t="inlineStr"/>
       <c r="V592" s="2" t="n">
-        <v>45280</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="593">
@@ -46179,7 +46315,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -46232,8 +46368,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N594" t="inlineStr"/>
-      <c r="O594" t="inlineStr"/>
+      <c r="N594" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O594" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P594" t="n">
         <v>1</v>
       </c>
@@ -46244,7 +46388,7 @@
         <v>1</v>
       </c>
       <c r="S594" t="n">
-        <v>1175</v>
+        <v>1197</v>
       </c>
       <c r="T594" t="inlineStr">
         <is>
@@ -46253,7 +46397,7 @@
       </c>
       <c r="U594" t="inlineStr"/>
       <c r="V594" s="2" t="n">
-        <v>45265</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="595">
@@ -46269,7 +46413,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -46327,7 +46471,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O595" t="inlineStr"/>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P595" t="n">
         <v>25</v>
       </c>
@@ -46338,7 +46486,7 @@
         <v>6</v>
       </c>
       <c r="S595" t="n">
-        <v>11331</v>
+        <v>11482</v>
       </c>
       <c r="T595" t="inlineStr">
         <is>
@@ -46347,7 +46495,7 @@
       </c>
       <c r="U595" t="inlineStr"/>
       <c r="V595" s="2" t="n">
-        <v>45274</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="596">
@@ -46363,7 +46511,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -46421,7 +46569,7 @@
       </c>
       <c r="U596" t="inlineStr"/>
       <c r="V596" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="597">
@@ -46889,7 +47037,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -46963,7 +47111,7 @@
       </c>
       <c r="U603" t="inlineStr"/>
       <c r="V603" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="604">
@@ -47399,7 +47547,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -47457,7 +47605,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O610" t="inlineStr"/>
+      <c r="O610" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P610" t="n">
         <v>143</v>
       </c>
@@ -47468,7 +47620,7 @@
         <v>209</v>
       </c>
       <c r="S610" t="n">
-        <v>29190</v>
+        <v>29227</v>
       </c>
       <c r="T610" t="inlineStr">
         <is>
@@ -47477,7 +47629,7 @@
       </c>
       <c r="U610" t="inlineStr"/>
       <c r="V610" s="2" t="n">
-        <v>45289</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="611">
@@ -47685,7 +47837,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -47743,7 +47895,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O613" t="inlineStr"/>
+      <c r="O613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P613" t="n">
         <v>0</v>
       </c>
@@ -47754,7 +47910,7 @@
         <v>0</v>
       </c>
       <c r="S613" t="n">
-        <v>7107</v>
+        <v>7110</v>
       </c>
       <c r="T613" t="inlineStr">
         <is>
@@ -47767,7 +47923,7 @@
         </is>
       </c>
       <c r="V613" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="614">
@@ -47969,7 +48125,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -48047,7 +48203,7 @@
       </c>
       <c r="U617" t="inlineStr"/>
       <c r="V617" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="618">
@@ -48555,7 +48711,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
@@ -48589,7 +48745,7 @@
       </c>
       <c r="U624" t="inlineStr"/>
       <c r="V624" s="2" t="n">
-        <v>45281</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="625">
@@ -49453,7 +49609,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
@@ -49463,13 +49619,17 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L635" t="inlineStr"/>
       <c r="M635" t="inlineStr"/>
       <c r="N635" t="inlineStr"/>
       <c r="O635" t="inlineStr"/>
       <c r="P635" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q635" t="n">
         <v>0</v>
@@ -49487,7 +49647,7 @@
       </c>
       <c r="U635" t="inlineStr"/>
       <c r="V635" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="636">
@@ -50213,7 +50373,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -50271,7 +50431,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O645" t="inlineStr"/>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P645" t="n">
         <v>0</v>
       </c>
@@ -50282,7 +50446,7 @@
         <v>1</v>
       </c>
       <c r="S645" t="n">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="T645" t="inlineStr">
         <is>
@@ -50291,7 +50455,7 @@
       </c>
       <c r="U645" t="inlineStr"/>
       <c r="V645" s="2" t="n">
-        <v>45278</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="646">
@@ -50753,7 +50917,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -50827,7 +50991,7 @@
       </c>
       <c r="U651" t="inlineStr"/>
       <c r="V651" s="2" t="n">
-        <v>45279</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="652">
@@ -51175,7 +51339,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -51253,7 +51417,7 @@
       </c>
       <c r="U656" t="inlineStr"/>
       <c r="V656" s="2" t="n">
-        <v>45279</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="657">
@@ -51269,7 +51433,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -51327,9 +51491,13 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O657" t="inlineStr"/>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P657" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q657" t="n">
         <v>0</v>
@@ -51338,7 +51506,7 @@
         <v>0</v>
       </c>
       <c r="S657" t="n">
-        <v>4246</v>
+        <v>4252</v>
       </c>
       <c r="T657" t="inlineStr">
         <is>
@@ -51347,7 +51515,7 @@
       </c>
       <c r="U657" t="inlineStr"/>
       <c r="V657" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="658">
@@ -51761,7 +51929,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D663" t="inlineStr"/>
@@ -51807,7 +51975,7 @@
         </is>
       </c>
       <c r="V663" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="664">
@@ -52003,7 +52171,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -52061,7 +52229,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O666" t="inlineStr"/>
+      <c r="O666" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P666" t="n">
         <v>848</v>
       </c>
@@ -52072,7 +52244,7 @@
         <v>1</v>
       </c>
       <c r="S666" t="n">
-        <v>5374</v>
+        <v>5378</v>
       </c>
       <c r="T666" t="inlineStr">
         <is>
@@ -52081,7 +52253,7 @@
       </c>
       <c r="U666" t="inlineStr"/>
       <c r="V666" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="667">
@@ -52097,7 +52269,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -52155,7 +52327,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O667" t="inlineStr"/>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P667" t="n">
         <v>38</v>
       </c>
@@ -52166,7 +52342,7 @@
         <v>5</v>
       </c>
       <c r="S667" t="n">
-        <v>7277</v>
+        <v>7296</v>
       </c>
       <c r="T667" t="inlineStr">
         <is>
@@ -52175,7 +52351,7 @@
       </c>
       <c r="U667" t="inlineStr"/>
       <c r="V667" s="2" t="n">
-        <v>45278</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="668">
@@ -52473,7 +52649,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -52523,7 +52699,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O671" t="inlineStr"/>
+      <c r="O671" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P671" t="n">
         <v>1</v>
       </c>
@@ -52534,7 +52714,7 @@
         <v>0</v>
       </c>
       <c r="S671" t="n">
-        <v>1452</v>
+        <v>1482</v>
       </c>
       <c r="T671" t="inlineStr">
         <is>
@@ -52547,7 +52727,7 @@
         </is>
       </c>
       <c r="V671" s="2" t="n">
-        <v>45287</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="672">
@@ -52563,7 +52743,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -52636,7 +52816,7 @@
         <v>5</v>
       </c>
       <c r="S672" t="n">
-        <v>3652</v>
+        <v>3680</v>
       </c>
       <c r="T672" t="inlineStr">
         <is>
@@ -52645,7 +52825,7 @@
       </c>
       <c r="U672" t="inlineStr"/>
       <c r="V672" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="673">
@@ -53239,7 +53419,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
@@ -53273,7 +53453,7 @@
       </c>
       <c r="U680" t="inlineStr"/>
       <c r="V680" s="2" t="n">
-        <v>45282</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="681">
@@ -53551,7 +53731,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -53624,7 +53804,7 @@
         <v>213</v>
       </c>
       <c r="S684" t="n">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="T684" t="inlineStr">
         <is>
@@ -53633,7 +53813,7 @@
       </c>
       <c r="U684" t="inlineStr"/>
       <c r="V684" s="2" t="n">
-        <v>45289</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="685">
@@ -53747,7 +53927,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -53801,7 +53981,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O686" t="inlineStr"/>
+      <c r="O686" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P686" t="n">
         <v>0</v>
       </c>
@@ -53812,7 +53996,7 @@
         <v>1</v>
       </c>
       <c r="S686" t="n">
-        <v>1356</v>
+        <v>1370</v>
       </c>
       <c r="T686" t="inlineStr">
         <is>
@@ -53821,7 +54005,7 @@
       </c>
       <c r="U686" t="inlineStr"/>
       <c r="V686" s="2" t="n">
-        <v>45286</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="687">
@@ -54005,7 +54189,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -54063,7 +54247,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O689" t="inlineStr"/>
+      <c r="O689" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P689" t="n">
         <v>0</v>
       </c>
@@ -54074,7 +54262,7 @@
         <v>0</v>
       </c>
       <c r="S689" t="n">
-        <v>2964</v>
+        <v>2982</v>
       </c>
       <c r="T689" t="inlineStr">
         <is>
@@ -54083,7 +54271,7 @@
       </c>
       <c r="U689" t="inlineStr"/>
       <c r="V689" s="2" t="n">
-        <v>45273</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="690">
@@ -54099,7 +54287,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -54149,7 +54337,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O690" t="inlineStr"/>
+      <c r="O690" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P690" t="n">
         <v>0</v>
       </c>
@@ -54160,7 +54352,7 @@
         <v>1</v>
       </c>
       <c r="S690" t="n">
-        <v>4709</v>
+        <v>4724</v>
       </c>
       <c r="T690" t="inlineStr">
         <is>
@@ -54169,7 +54361,7 @@
       </c>
       <c r="U690" t="inlineStr"/>
       <c r="V690" s="2" t="n">
-        <v>45265</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="691">
@@ -54839,7 +55031,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D698" t="inlineStr"/>
@@ -54853,7 +55045,11 @@
       <c r="L698" t="inlineStr"/>
       <c r="M698" t="inlineStr"/>
       <c r="N698" t="inlineStr"/>
-      <c r="O698" t="inlineStr"/>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P698" t="n">
         <v>427</v>
       </c>
@@ -54864,7 +55060,7 @@
         <v>0</v>
       </c>
       <c r="S698" t="n">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="T698" t="inlineStr">
         <is>
@@ -54873,7 +55069,7 @@
       </c>
       <c r="U698" t="inlineStr"/>
       <c r="V698" s="2" t="n">
-        <v>45266</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="699">
@@ -54983,7 +55179,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -55061,7 +55257,7 @@
       </c>
       <c r="U700" t="inlineStr"/>
       <c r="V700" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="701">
@@ -55505,21 +55701,41 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>2023/05/31</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D707" t="inlineStr"/>
       <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr"/>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G707" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr"/>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L707" t="inlineStr"/>
       <c r="M707" t="inlineStr"/>
       <c r="N707" t="inlineStr"/>
@@ -55534,7 +55750,7 @@
         <v>28</v>
       </c>
       <c r="S707" t="n">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="T707" t="inlineStr">
         <is>
@@ -55543,7 +55759,7 @@
       </c>
       <c r="U707" t="inlineStr"/>
       <c r="V707" s="2" t="n">
-        <v>45077</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="708">
@@ -56083,7 +56299,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -56141,7 +56357,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O714" t="inlineStr"/>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P714" t="n">
         <v>14</v>
       </c>
@@ -56152,7 +56372,7 @@
         <v>1</v>
       </c>
       <c r="S714" t="n">
-        <v>7555</v>
+        <v>7562</v>
       </c>
       <c r="T714" t="inlineStr">
         <is>
@@ -56161,7 +56381,7 @@
       </c>
       <c r="U714" t="inlineStr"/>
       <c r="V714" s="2" t="n">
-        <v>45289</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="715">
@@ -56227,7 +56447,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -56285,7 +56505,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O716" t="inlineStr"/>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P716" t="n">
         <v>3</v>
       </c>
@@ -56296,7 +56520,7 @@
         <v>0</v>
       </c>
       <c r="S716" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T716" t="inlineStr">
         <is>
@@ -56305,7 +56529,7 @@
       </c>
       <c r="U716" t="inlineStr"/>
       <c r="V716" s="2" t="n">
-        <v>45280</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="717">
@@ -56963,7 +57187,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -57005,7 +57229,7 @@
       </c>
       <c r="U724" t="inlineStr"/>
       <c r="V724" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="725">
@@ -57083,7 +57307,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -57141,7 +57365,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O726" t="inlineStr"/>
+      <c r="O726" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P726" t="n">
         <v>70</v>
       </c>
@@ -57152,7 +57380,7 @@
         <v>49</v>
       </c>
       <c r="S726" t="n">
-        <v>19485</v>
+        <v>19500</v>
       </c>
       <c r="T726" t="inlineStr">
         <is>
@@ -57161,7 +57389,7 @@
       </c>
       <c r="U726" t="inlineStr"/>
       <c r="V726" s="2" t="n">
-        <v>45281</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="727">
@@ -57415,7 +57643,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -57484,7 +57712,7 @@
         <v>0</v>
       </c>
       <c r="S730" t="n">
-        <v>4565</v>
+        <v>4585</v>
       </c>
       <c r="T730" t="inlineStr">
         <is>
@@ -57493,7 +57721,7 @@
       </c>
       <c r="U730" t="inlineStr"/>
       <c r="V730" s="2" t="n">
-        <v>45266</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="731">
@@ -57509,7 +57737,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -57567,7 +57795,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O731" t="inlineStr"/>
+      <c r="O731" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P731" t="n">
         <v>0</v>
       </c>
@@ -57578,7 +57810,7 @@
         <v>0</v>
       </c>
       <c r="S731" t="n">
-        <v>4233</v>
+        <v>4251</v>
       </c>
       <c r="T731" t="inlineStr">
         <is>
@@ -57587,7 +57819,7 @@
       </c>
       <c r="U731" t="inlineStr"/>
       <c r="V731" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="732">
@@ -59249,7 +59481,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -59327,7 +59559,7 @@
       </c>
       <c r="U751" t="inlineStr"/>
       <c r="V751" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="752">
@@ -59945,7 +60177,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -60003,7 +60235,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O759" t="inlineStr"/>
+      <c r="O759" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P759" t="n">
         <v>12</v>
       </c>
@@ -60014,7 +60250,7 @@
         <v>0</v>
       </c>
       <c r="S759" t="n">
-        <v>1198</v>
+        <v>1270</v>
       </c>
       <c r="T759" t="inlineStr">
         <is>
@@ -60027,7 +60263,7 @@
         </is>
       </c>
       <c r="V759" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="760">
@@ -60211,7 +60447,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -60269,7 +60505,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O762" t="inlineStr"/>
+      <c r="O762" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P762" t="n">
         <v>0</v>
       </c>
@@ -60280,7 +60520,7 @@
         <v>0</v>
       </c>
       <c r="S762" t="n">
-        <v>1179</v>
+        <v>1252</v>
       </c>
       <c r="T762" t="inlineStr">
         <is>
@@ -60293,7 +60533,7 @@
         </is>
       </c>
       <c r="V762" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="763">
@@ -60941,7 +61181,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -60985,9 +61225,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M771" t="inlineStr"/>
-      <c r="N771" t="inlineStr"/>
-      <c r="O771" t="inlineStr"/>
+      <c r="M771" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N771" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O771" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P771" t="n">
         <v>0</v>
       </c>
@@ -60998,7 +61250,7 @@
         <v>3</v>
       </c>
       <c r="S771" t="n">
-        <v>16517</v>
+        <v>16528</v>
       </c>
       <c r="T771" t="inlineStr">
         <is>
@@ -61007,7 +61259,7 @@
       </c>
       <c r="U771" t="inlineStr"/>
       <c r="V771" s="2" t="n">
-        <v>45267</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="772">
@@ -62019,7 +62271,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -62077,7 +62329,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O784" t="inlineStr"/>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P784" t="n">
         <v>26</v>
       </c>
@@ -62088,7 +62344,7 @@
         <v>19</v>
       </c>
       <c r="S784" t="n">
-        <v>9876</v>
+        <v>9896</v>
       </c>
       <c r="T784" t="inlineStr">
         <is>
@@ -62101,7 +62357,7 @@
         </is>
       </c>
       <c r="V784" s="2" t="n">
-        <v>45281</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="785">
@@ -62211,7 +62467,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -62293,7 +62549,7 @@
       </c>
       <c r="U786" t="inlineStr"/>
       <c r="V786" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="787">
@@ -63923,7 +64179,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D808" t="inlineStr"/>
@@ -63957,7 +64213,7 @@
       </c>
       <c r="U808" t="inlineStr"/>
       <c r="V808" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="809">
@@ -63973,7 +64229,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D809" t="inlineStr"/>
@@ -64023,7 +64279,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O809" t="inlineStr"/>
+      <c r="O809" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P809" t="n">
         <v>12</v>
       </c>
@@ -64034,7 +64294,7 @@
         <v>0</v>
       </c>
       <c r="S809" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="T809" t="inlineStr">
         <is>
@@ -64043,7 +64303,7 @@
       </c>
       <c r="U809" t="inlineStr"/>
       <c r="V809" s="2" t="n">
-        <v>45279</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="810">
@@ -64059,7 +64319,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -64129,7 +64389,7 @@
       </c>
       <c r="U810" t="inlineStr"/>
       <c r="V810" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="811">
@@ -64665,7 +64925,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
@@ -64713,9 +64973,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M817" t="inlineStr"/>
-      <c r="N817" t="inlineStr"/>
-      <c r="O817" t="inlineStr"/>
+      <c r="M817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P817" t="n">
         <v>0</v>
       </c>
@@ -64726,7 +64998,7 @@
         <v>0</v>
       </c>
       <c r="S817" t="n">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="T817" t="inlineStr">
         <is>
@@ -64735,7 +65007,7 @@
       </c>
       <c r="U817" t="inlineStr"/>
       <c r="V817" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="818">
@@ -64845,7 +65117,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
@@ -64898,8 +65170,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N819" t="inlineStr"/>
-      <c r="O819" t="inlineStr"/>
+      <c r="N819" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O819" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P819" t="n">
         <v>0</v>
       </c>
@@ -64910,7 +65190,7 @@
         <v>0</v>
       </c>
       <c r="S819" t="n">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="T819" t="inlineStr">
         <is>
@@ -64919,7 +65199,7 @@
       </c>
       <c r="U819" t="inlineStr"/>
       <c r="V819" s="2" t="n">
-        <v>45264</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="820">
@@ -65123,7 +65403,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D822" t="inlineStr"/>
@@ -65148,7 +65428,7 @@
         <v>0</v>
       </c>
       <c r="S822" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="T822" t="inlineStr">
         <is>
@@ -65157,7 +65437,7 @@
       </c>
       <c r="U822" t="inlineStr"/>
       <c r="V822" s="2" t="n">
-        <v>45266</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="823">
@@ -65305,7 +65585,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -65363,7 +65643,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O825" t="inlineStr"/>
+      <c r="O825" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P825" t="n">
         <v>0</v>
       </c>
@@ -65374,7 +65658,7 @@
         <v>0</v>
       </c>
       <c r="S825" t="n">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="T825" t="inlineStr">
         <is>
@@ -65383,7 +65667,7 @@
       </c>
       <c r="U825" t="inlineStr"/>
       <c r="V825" s="2" t="n">
-        <v>45265</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="826">
@@ -65923,7 +66207,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D832" t="inlineStr"/>
@@ -65937,7 +66221,11 @@
       <c r="L832" t="inlineStr"/>
       <c r="M832" t="inlineStr"/>
       <c r="N832" t="inlineStr"/>
-      <c r="O832" t="inlineStr"/>
+      <c r="O832" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P832" t="n">
         <v>507</v>
       </c>
@@ -65948,7 +66236,7 @@
         <v>0</v>
       </c>
       <c r="S832" t="n">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="T832" t="inlineStr">
         <is>
@@ -65957,7 +66245,7 @@
       </c>
       <c r="U832" t="inlineStr"/>
       <c r="V832" s="2" t="n">
-        <v>45279</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="833">
@@ -68765,7 +69053,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
@@ -68814,7 +69102,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N865" t="inlineStr"/>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O865" t="inlineStr"/>
       <c r="P865" t="n">
         <v>0</v>
@@ -68826,7 +69118,7 @@
         <v>0</v>
       </c>
       <c r="S865" t="n">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="T865" t="inlineStr">
         <is>
@@ -68835,7 +69127,7 @@
       </c>
       <c r="U865" t="inlineStr"/>
       <c r="V865" s="2" t="n">
-        <v>45240</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="866">
@@ -68949,7 +69241,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
@@ -69027,7 +69319,7 @@
       </c>
       <c r="U867" t="inlineStr"/>
       <c r="V867" s="2" t="n">
-        <v>45266</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="868">
@@ -69927,7 +70219,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
@@ -69985,7 +70277,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O878" t="inlineStr"/>
+      <c r="O878" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P878" t="n">
         <v>0</v>
       </c>
@@ -69996,7 +70292,7 @@
         <v>0</v>
       </c>
       <c r="S878" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="T878" t="inlineStr">
         <is>
@@ -70005,7 +70301,7 @@
       </c>
       <c r="U878" t="inlineStr"/>
       <c r="V878" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="879">
@@ -71273,7 +71569,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
@@ -71351,7 +71647,7 @@
       </c>
       <c r="U893" t="inlineStr"/>
       <c r="V893" s="2" t="n">
-        <v>45272</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="894">
@@ -71535,7 +71831,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
@@ -71613,7 +71909,7 @@
       </c>
       <c r="U896" t="inlineStr"/>
       <c r="V896" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="897">
@@ -72685,7 +72981,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
@@ -72735,7 +73031,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O909" t="inlineStr"/>
+      <c r="O909" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P909" t="n">
         <v>0</v>
       </c>
@@ -72746,7 +73046,7 @@
         <v>0</v>
       </c>
       <c r="S909" t="n">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="T909" t="inlineStr">
         <is>
@@ -72755,7 +73055,7 @@
       </c>
       <c r="U909" t="inlineStr"/>
       <c r="V909" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="910">
@@ -73703,7 +74003,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
@@ -73756,7 +74056,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N920" t="inlineStr"/>
+      <c r="N920" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O920" t="inlineStr"/>
       <c r="P920" t="n">
         <v>0</v>
@@ -73768,7 +74072,7 @@
         <v>0</v>
       </c>
       <c r="S920" t="n">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="T920" t="inlineStr">
         <is>
@@ -73777,7 +74081,7 @@
       </c>
       <c r="U920" t="inlineStr"/>
       <c r="V920" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="921">
@@ -73981,7 +74285,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
@@ -74039,7 +74343,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O923" t="inlineStr"/>
+      <c r="O923" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P923" t="n">
         <v>6</v>
       </c>
@@ -74050,7 +74358,7 @@
         <v>0</v>
       </c>
       <c r="S923" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="T923" t="inlineStr">
         <is>
@@ -74059,7 +74367,7 @@
       </c>
       <c r="U923" t="inlineStr"/>
       <c r="V923" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="924">
@@ -75243,7 +75551,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -75321,7 +75629,7 @@
       </c>
       <c r="U938" t="inlineStr"/>
       <c r="V938" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="939">
@@ -75977,7 +76285,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D947" t="inlineStr">
@@ -76055,7 +76363,7 @@
       </c>
       <c r="U947" t="inlineStr"/>
       <c r="V947" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="948">
@@ -76579,7 +76887,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D954" t="inlineStr"/>
@@ -76613,7 +76921,7 @@
       </c>
       <c r="U954" t="inlineStr"/>
       <c r="V954" s="2" t="n">
-        <v>45261</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="955">
@@ -77383,7 +77691,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D964" t="inlineStr"/>
@@ -77413,7 +77721,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O964" t="inlineStr"/>
+      <c r="O964" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P964" t="n">
         <v>0</v>
       </c>
@@ -77424,7 +77736,7 @@
         <v>0</v>
       </c>
       <c r="S964" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="T964" t="inlineStr">
         <is>
@@ -77433,7 +77745,7 @@
       </c>
       <c r="U964" t="inlineStr"/>
       <c r="V964" s="2" t="n">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="965">
@@ -77449,7 +77761,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D965" t="inlineStr"/>
@@ -77479,7 +77791,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O965" t="inlineStr"/>
+      <c r="O965" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P965" t="n">
         <v>0</v>
       </c>
@@ -77490,7 +77806,7 @@
         <v>0</v>
       </c>
       <c r="S965" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="T965" t="inlineStr">
         <is>
@@ -77499,7 +77815,7 @@
       </c>
       <c r="U965" t="inlineStr"/>
       <c r="V965" s="2" t="n">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="966">
@@ -77515,7 +77831,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D966" t="inlineStr"/>
@@ -77545,7 +77861,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O966" t="inlineStr"/>
+      <c r="O966" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P966" t="n">
         <v>0</v>
       </c>
@@ -77556,7 +77876,7 @@
         <v>0</v>
       </c>
       <c r="S966" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="T966" t="inlineStr">
         <is>
@@ -77565,7 +77885,7 @@
       </c>
       <c r="U966" t="inlineStr"/>
       <c r="V966" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="967">
@@ -77775,7 +78095,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D970" t="inlineStr"/>
@@ -77813,7 +78133,7 @@
       </c>
       <c r="U970" t="inlineStr"/>
       <c r="V970" s="2" t="n">
-        <v>45265</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="971">
@@ -78007,7 +78327,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D974" t="inlineStr"/>
@@ -78049,7 +78369,7 @@
       </c>
       <c r="U974" t="inlineStr"/>
       <c r="V974" s="2" t="n">
-        <v>45271</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="975">
@@ -78235,7 +78555,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D978" t="inlineStr"/>
@@ -78253,7 +78573,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O978" t="inlineStr"/>
+      <c r="O978" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P978" t="n">
         <v>0</v>
       </c>
@@ -78264,7 +78588,7 @@
         <v>0</v>
       </c>
       <c r="S978" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T978" t="inlineStr">
         <is>
@@ -78273,7 +78597,7 @@
       </c>
       <c r="U978" t="inlineStr"/>
       <c r="V978" s="2" t="n">
-        <v>45265</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="979">
@@ -78667,7 +78991,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D986" t="inlineStr"/>
@@ -78679,13 +79003,17 @@
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
       <c r="L986" t="inlineStr"/>
-      <c r="M986" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="N986" t="inlineStr"/>
-      <c r="O986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+      <c r="N986" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O986" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P986" t="n">
         <v>0</v>
       </c>
@@ -78696,7 +79024,7 @@
         <v>0</v>
       </c>
       <c r="S986" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T986" t="inlineStr">
         <is>
@@ -78705,7 +79033,7 @@
       </c>
       <c r="U986" t="inlineStr"/>
       <c r="V986" s="2" t="n">
-        <v>45272</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="987">
@@ -79103,7 +79431,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D994" t="inlineStr"/>
@@ -79137,7 +79465,7 @@
       </c>
       <c r="U994" t="inlineStr"/>
       <c r="V994" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="995">
@@ -79148,24 +79476,64 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>Instituto Nacional del Cáncer</t>
+          <t>Municipalidad de El Tabo</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
-        </is>
-      </c>
-      <c r="D995" t="inlineStr"/>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr"/>
-      <c r="H995" t="inlineStr"/>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr"/>
-      <c r="M995" t="inlineStr"/>
+          <t>2024/01/04</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M995" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N995" t="inlineStr">
         <is>
           <t>x</t>
@@ -79182,16 +79550,236 @@
         <v>0</v>
       </c>
       <c r="S995" t="n">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="T995" t="inlineStr">
         <is>
-          <t>AO108</t>
+          <t>MU086</t>
         </is>
       </c>
       <c r="U995" t="inlineStr"/>
       <c r="V995" s="2" t="n">
-        <v>45289</v>
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Instituto Nacional del Cáncer</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>2024/01/03</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="inlineStr"/>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="inlineStr"/>
+      <c r="H996" t="inlineStr"/>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
+      <c r="L996" t="inlineStr"/>
+      <c r="M996" t="inlineStr"/>
+      <c r="N996" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O996" t="inlineStr"/>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
+      <c r="S996" t="n">
+        <v>2</v>
+      </c>
+      <c r="T996" t="inlineStr">
+        <is>
+          <t>AO108</t>
+        </is>
+      </c>
+      <c r="U996" t="inlineStr"/>
+      <c r="V996" s="2" t="n">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Municipalidad de Casablanca</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>2024/01/02</t>
+        </is>
+      </c>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="inlineStr"/>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="inlineStr"/>
+      <c r="H997" t="inlineStr"/>
+      <c r="I997" t="inlineStr"/>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="inlineStr"/>
+      <c r="M997" t="inlineStr"/>
+      <c r="N997" t="inlineStr"/>
+      <c r="O997" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
+      <c r="S997" t="n">
+        <v>6</v>
+      </c>
+      <c r="T997" t="inlineStr">
+        <is>
+          <t>MU030</t>
+        </is>
+      </c>
+      <c r="U997" t="inlineStr"/>
+      <c r="V997" s="2" t="n">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Gobierno Regional de Arica y Parinacota (GORE)</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>2024/01/04</t>
+        </is>
+      </c>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="inlineStr"/>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="inlineStr"/>
+      <c r="H998" t="inlineStr"/>
+      <c r="I998" t="inlineStr"/>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M998" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N998" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O998" t="inlineStr"/>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
+      <c r="S998" t="n">
+        <v>41</v>
+      </c>
+      <c r="T998" t="inlineStr">
+        <is>
+          <t>AB075</t>
+        </is>
+      </c>
+      <c r="U998" t="inlineStr"/>
+      <c r="V998" s="2" t="n">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Municipalidad de Torres del Paine</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>2024/01/05</t>
+        </is>
+      </c>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="inlineStr"/>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="inlineStr"/>
+      <c r="H999" t="inlineStr"/>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
+      <c r="L999" t="inlineStr"/>
+      <c r="M999" t="inlineStr"/>
+      <c r="N999" t="inlineStr"/>
+      <c r="O999" t="inlineStr"/>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
+      <c r="S999" t="n">
+        <v>72</v>
+      </c>
+      <c r="T999" t="inlineStr">
+        <is>
+          <t>MU325</t>
+        </is>
+      </c>
+      <c r="U999" t="inlineStr"/>
+      <c r="V999" s="2" t="n">
+        <v>45296</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado7.xlsx
+++ b/consolidado7.xlsx
@@ -1987,7 +1987,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2067,7 +2067,7 @@
         <v>2022</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>45327</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="21">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2159,7 +2159,7 @@
         <v>2022</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>45335</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="22">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2355,7 +2355,7 @@
         <v>2023</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>45303</v>
+        <v>45359</v>
       </c>
     </row>
     <row r="24">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2547,7 +2547,7 @@
         <v>2023</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>45327</v>
+        <v>45356</v>
       </c>
     </row>
     <row r="26">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2883,7 +2883,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2904,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2915,7 +2919,7 @@
         <v>2024</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>45335</v>
+        <v>45357</v>
       </c>
     </row>
   </sheetData>
